--- a/dataset/lg/kumaara.xlsx
+++ b/dataset/lg/kumaara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీభామినీ మనోహర
 సౌభాగ్యు దయాస్వభావు సారసనాభున్‌
@@ -477,32 +474,29 @@
 వైభవము లొసంగుచుండ వసుధ కుమారా!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('భా', 'U'), ('మి', '|'), ('నీ', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('సౌ', 'U'), ('భా', 'U'), ('గ్యు', '|'), ('ద', '|'), ('యా', 'U'), ('స్వ', '|'), ('భా', 'U'), ('వు', '|'), ('సా', 'U'), ('ర', '|'), ('స', '|'), ('నా', 'U'), ('భున్', 'U'), ('లో', 'U'), ('భా', 'U'), ('విం', 'U'), ('చె', '|'), ('ద', '|'), ('నీ', 'U'), ('కున్', 'U'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('లొ', '|'), ('సం', 'U'), ('గు', '|'), ('చుం', 'U'), ('డ', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>ఆజ్ఞ యొనర్చెడి వృత్తుల
 లో జ్ఞానము గలిగి మెలఁగు లోకులు మెచ్చన్‌
@@ -510,32 +504,29 @@
 బ్రాజ్ఞులలోఁ బ్రాజ్ఞుడవుగ ప్రబలు కుమారా!</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('జ్ఞ', '|'), ('యొ', '|'), ('న', 'U'), ('ర్చె', '|'), ('డి', '|'), ('వృ', 'U'), ('త్తు', '|'), ('ల', '|'), ('లో', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('లో', 'U'), ('కు', '|'), ('లు', '|'), ('మె', '|'), ('చ్చన్', 'U'), ('బ్రా', 'U'), ('జ్ఞ', '|'), ('త', '|'), ('ను', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('యు', '|'), ('న్నన్', 'U'), ('బ్రా', 'U'), ('జ్ఞు', '|'), ('ల', '|'), ('లో', 'U'), ('బ్రా', 'U'), ('జ్ఞు', '|'), ('డ', '|'), ('వు', '|'), ('గ', 'U'), ('ప్ర', '|'), ('బ', '|'), ('లు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>అతి బాల్యములోనైనను
 బ్రతికూలపు మార్గములఁ బ్రవర్తింపక స
@@ -543,32 +534,29 @@
 నతనికి లోకమున సౌఖ్యమగును ముమారా!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('బా', 'U'), ('ల్య', '|'), ('ము', '|'), ('లో', 'U'), ('నై', 'U'), ('న', '|'), ('ను', 'U'), ('బ్ర', '|'), ('తి', '|'), ('కూ', 'U'), ('ల', '|'), ('పు', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('ల', 'U'), ('బ్ర', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('క', '|'), ('స', 'U'), ('ద్గ', '|'), ('తి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('మె', '|'), ('ల', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('న', '|'), ('త', '|'), ('ని', '|'), ('కి', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('న', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('మ', '|'), ('గు', '|'), ('ను', '|'), ('ము', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>వృద్ధజన సేవ చేసిన
 బుద్ధి విశేషజ్ఞుఁడనుచుఁ బూతచరితుఁడున్‌
@@ -576,32 +564,29 @@
 లిద్ధరఁ బొగడెదరు ప్రేమ యెసఁగఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('వృ', 'U'), ('ద్ధ', '|'), ('జ', '|'), ('న', '|'), ('సే', 'U'), ('వ', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('వి', '|'), ('శే', 'U'), ('ష', 'U'), ('జ్ఞు', '|'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('బూ', 'U'), ('త', '|'), ('చ', '|'), ('రి', '|'), ('తు', '|'), ('డున్', 'U'), ('స', 'U'), ('ద్ధ', '|'), ('ర్మ', '|'), ('శా', 'U'), ('లి', '|'), ('య', '|'), ('ని', '|'), ('బు', '|'), ('ధు', '|'), ('లి', 'U'), ('ద్ధ', '|'), ('ర', '|'), ('బొ', '|'), ('గ', '|'), ('డె', '|'), ('ద', '|'), ('రు', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('యె', '|'), ('స', '|'), ('గ', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>పెద్దలు వద్దని చెప్పిన
 పద్దులఁ బోవంగరాదు పరకాంతల నే
@@ -609,32 +594,29 @@
 కుద్దేశింపంగఁ గూడ దుర్విఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('పె', 'U'), ('ద్ద', '|'), ('లు', '|'), ('వ', 'U'), ('ద్ద', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పి', '|'), ('న', '|'), ('ప', 'U'), ('ద్దు', '|'), ('ల', '|'), ('బో', 'U'), ('వం', 'U'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('ప', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('ల', '|'), ('నే', 'U'), ('ప్రొ', 'U'), ('ద్దే', 'U'), ('నె', '|'), ('ద', '|'), ('బ', '|'), ('రి', '|'), ('కిం', 'U'), ('చు', '|'), ('ట', '|'), ('కు', 'U'), ('ద్దే', 'U'), ('శిం', 'U'), ('పం', 'U'), ('గ', '|'), ('గూ', 'U'), ('డ', '|'), ('దు', 'U'), ('ర్వి', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>తనపై దయ నుల్కొనఁగను
 గొన నేతెంచిన సుశీల గురుమతులను వం
@@ -642,32 +624,29 @@
 మనమలరఁగ నిదియ విబుధ మతము కుమారా!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('పై', 'U'), ('ద', '|'), ('య', '|'), ('ను', 'U'), ('ల్కొ', '|'), ('న', '|'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('న', '|'), ('నే', 'U'), ('తెం', 'U'), ('చి', '|'), ('న', '|'), ('సు', '|'), ('శీ', 'U'), ('ల', '|'), ('గు', '|'), ('రు', '|'), ('మ', '|'), ('తు', '|'), ('ల', '|'), ('ను', '|'), ('వం', 'U'), ('ద', '|'), ('న', '|'), ('ము', '|'), ('గ', '|'), ('బూ', 'U'), ('జిం', 'U'), ('ప', '|'), ('ద', '|'), ('గు', '|'), ('మ', '|'), ('న', '|'), ('మ', '|'), ('ల', '|'), ('ర', '|'), ('గ', '|'), ('ని', '|'), ('ది', '|'), ('య', '|'), ('వి', '|'), ('బు', '|'), ('ధ', '|'), ('మ', '|'), ('త', '|'), ('ము', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>ఉన్నను లేకున్నను పై
 కెన్నఁడు మర్మంబుఁ దెలుప నేగకుమీ నీ
@@ -675,32 +654,29 @@
 బెన్నఁబడెడు మాడ్కిఁ దిరుగు మెలమిఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('ఉ', 'U'), ('న్న', '|'), ('ను', '|'), ('లే', 'U'), ('కు', 'U'), ('న్న', '|'), ('ను', '|'), ('పై', 'U'), ('కె', 'U'), ('న్న', '|'), ('డు', '|'), ('మ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('దె', '|'), ('లు', '|'), ('ప', '|'), ('నే', 'U'), ('గ', '|'), ('కు', '|'), ('మీ', 'U'), ('నీ', 'U'), ('క', 'U'), ('న్న', '|'), ('త', '|'), ('లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ల', '|'), ('య', '|'), ('శం', 'U'), ('బె', 'U'), ('న్న', '|'), ('బ', '|'), ('డె', '|'), ('డు', '|'), ('మా', 'U'), ('డ్కి', '|'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('మె', '|'), ('ల', '|'), ('మి', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>పెద్దలు విచ్చేసినచో
 బద్దకముననైన దుష్ట పద్ధతి నైనన్‌
@@ -708,32 +684,29 @@
 మొద్దువలెం జూతు రతని ముద్దు కుమారా!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('పె', 'U'), ('ద్ద', '|'), ('లు', '|'), ('వి', 'U'), ('చ్చే', 'U'), ('సి', '|'), ('న', '|'), ('చో', 'U'), ('బ', 'U'), ('ద్ద', '|'), ('క', '|'), ('ము', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('దు', 'U'), ('ష్ట', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('నై', 'U'), ('నన్', 'U'), ('హ', 'U'), ('ద్దె', '|'), ('ఱి', '|'), ('గి', '|'), ('లే', 'U'), ('వ', '|'), ('కు', '|'), ('న్నన్', 'U'), ('మొ', 'U'), ('ద్దు', '|'), ('వ', '|'), ('లెం', 'U'), ('జూ', 'U'), ('తు', '|'), ('ర', '|'), ('త', '|'), ('ని', '|'), ('ము', 'U'), ('ద్దు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>సతతముఁ బ్రాతఃకాలో
 చిత విధులను జరుపు మరసి శీఘ్రముగ నహః
@@ -741,32 +714,29 @@
 గతుఁడగుటకు మున్నె వెరపు గల్గి కుమారా!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('త', '|'), ('త', '|'), ('ము', 'U'), ('బ్రా', 'U'), ('తః', 'U'), ('కా', 'U'), ('లో', 'U'), ('చి', '|'), ('త', '|'), ('వి', '|'), ('ధు', '|'), ('ల', '|'), ('ను', '|'), ('జ', '|'), ('రు', '|'), ('పు', '|'), ('మ', '|'), ('ర', '|'), ('సి', '|'), ('శీ', 'U'), ('ఘ్ర', '|'), ('ము', '|'), ('గ', '|'), ('న', '|'), ('హః', 'U'), ('ప', '|'), ('తి', '|'), ('పూ', 'U'), ('ర్వ', '|'), ('ప', 'U'), ('ర్వ', '|'), ('తా', 'U'), ('గ్రా', 'U'), ('గ', '|'), ('తు', '|'), ('డ', '|'), ('గు', '|'), ('ట', '|'), ('కు', '|'), ('ము', 'U'), ('న్నె', '|'), ('వె', '|'), ('ర', '|'), ('పు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>పోషకుల మతముఁ గనుఁగొని
 భూషింపక కాని ముదముఁ బొందఁడు మఱియున్‌
@@ -774,32 +744,29 @@
 దోషివయిన మిగులఁ గీడు దోఁచుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('పో', 'U'), ('ష', '|'), ('కు', '|'), ('ల', '|'), ('మ', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('భూ', 'U'), ('షిం', 'U'), ('ప', '|'), ('క', '|'), ('కా', 'U'), ('ని', '|'), ('ము', '|'), ('ద', '|'), ('ము', '|'), ('బొం', 'U'), ('ద', '|'), ('డు', '|'), ('మ', '|'), ('ఱి', '|'), ('యున్', 'U'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('ల', '|'), ('నెం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డు', '|'), ('ను', '|'), ('దో', 'U'), ('షి', '|'), ('వ', '|'), ('యి', '|'), ('న', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('గీ', 'U'), ('డు', '|'), ('దో', 'U'), ('చు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>నరవరుఁడు నమ్మి తను నౌ
 కరిలో నుంచునెడ వాని కార్యములందున్‌
@@ -807,32 +774,29 @@
 పురుషుఁడు లోకమునఁగీర్తి బొందుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ర', '|'), ('వ', '|'), ('రు', '|'), ('డు', '|'), ('న', 'U'), ('మ్మి', '|'), ('త', '|'), ('ను', '|'), ('నౌ', 'U'), ('క', '|'), ('రి', '|'), ('లో', 'U'), ('నుం', 'U'), ('చు', '|'), ('నె', '|'), ('డ', '|'), ('వా', 'U'), ('ని', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('లం', 'U'), ('దున్', 'U'), ('స', '|'), ('రి', '|'), ('గా', 'U'), ('మె', '|'), ('లం', 'U'), ('గ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('డు', '|'), ('లో', 'U'), ('క', '|'), ('ము', '|'), ('న', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('బొం', 'U'), ('దు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>పుడమిని దుష్టత గలయా
 తఁడు లంచంబులను బట్టఁ దలఁచును మిడి యౌ
@@ -840,32 +804,29 @@
 బడి ద్రిప్పికొనుచును గీడు పఱప బుత్రా!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('డ', '|'), ('మి', '|'), ('ని', '|'), ('దు', 'U'), ('ష్ట', '|'), ('త', '|'), ('గ', '|'), ('ల', '|'), ('యా', 'U'), ('త', '|'), ('డు', '|'), ('లం', 'U'), ('చం', 'U'), ('బు', '|'), ('ల', '|'), ('ను', '|'), ('బ', 'U'), ('ట్ట', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('ను', '|'), ('మి', '|'), ('డి', '|'), ('యౌ', 'U'), ('న', '|'), ('డ', '|'), ('వ', '|'), ('డి', '|'), ('వి', '|'), ('డి', '|'), ('యం', 'U'), ('ద', '|'), ('ఱి', '|'), ('వెం', 'U'), ('బ', '|'), ('డి', '|'), ('ద్రి', 'U'), ('ప్పి', '|'), ('కొ', '|'), ('ను', '|'), ('చు', '|'), ('ను', '|'), ('గీ', 'U'), ('డు', '|'), ('ప', '|'), ('ఱ', '|'), ('ప', '|'), ('బు', 'U'), ('త్రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>పనులెన్ని కలిగి యున్నను
 దిన దినముల విద్యపెంపు ధీయుక్తుఁడవై
@@ -873,32 +834,29 @@
 కని విబుధులు సంతసించు గతినిఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ను', '|'), ('లె', 'U'), ('న్ని', '|'), ('క', '|'), ('లి', '|'), ('గి', '|'), ('యు', 'U'), ('న్న', '|'), ('ను', '|'), ('ది', '|'), ('న', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('వి', 'U'), ('ద్య', '|'), ('పెం', 'U'), ('పు', '|'), ('ధీ', 'U'), ('యు', 'U'), ('క్తు', '|'), ('డ', '|'), ('వై', 'U'), ('వి', '|'), ('న', '|'), ('గో', 'U'), ('రు', '|'), ('ము', '|'), ('స', 'U'), ('త్క', '|'), ('థ', '|'), ('ల', '|'), ('ను', '|'), ('క', '|'), ('ని', '|'), ('వి', '|'), ('బు', '|'), ('ధు', '|'), ('లు', '|'), ('సం', 'U'), ('త', '|'), ('సిం', 'U'), ('చు', '|'), ('గ', '|'), ('తి', '|'), ('ని', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>ధరణీనాయకు రాణియు
 గురురాణియు నన్నరాణి కులకాంతను గ
@@ -906,32 +864,29 @@
 ధర నేవురు తల్లులనుచుఁ దలఁపుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('రా', 'U'), ('ణి', '|'), ('యు', '|'), ('గు', '|'), ('రు', '|'), ('రా', 'U'), ('ణి', '|'), ('యు', '|'), ('న', 'U'), ('న్న', '|'), ('రా', 'U'), ('ణి', '|'), ('కు', '|'), ('ల', '|'), ('కాం', 'U'), ('త', '|'), ('ను', '|'), ('గ', 'U'), ('న్న', '|'), ('ర', '|'), ('మ', '|'), ('ణి', '|'), ('ద', '|'), ('ను', '|'), ('గ', 'U'), ('న్న', '|'), ('ది', '|'), ('యు', '|'), ('ను', '|'), ('ధ', '|'), ('ర', '|'), ('నే', 'U'), ('వు', '|'), ('రు', '|'), ('త', 'U'), ('ల్లు', '|'), ('ల', '|'), ('ను', '|'), ('చు', '|'), ('ద', '|'), ('ల', '|'), ('పు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>సదమల మతితోఁ బెద్దల
 మది కింపుగ మెలఁగు, నింద మానుము పరులన్‌
@@ -939,32 +894,29 @@
 విదితంబుగ దానఁగీర్తి వెలయుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ద', '|'), ('మ', '|'), ('ల', '|'), ('మ', '|'), ('తి', '|'), ('తో', 'U'), ('బె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('మ', '|'), ('ది', '|'), ('కిం', 'U'), ('పు', '|'), ('గ', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('నిం', 'U'), ('ద', '|'), ('మా', 'U'), ('ను', '|'), ('ము', '|'), ('ప', '|'), ('రు', '|'), ('లన్', 'U'), ('మృ', '|'), ('దు', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('కు', '|'), ('వి', '|'), ('ది', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('దా', 'U'), ('న', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('వె', '|'), ('ల', '|'), ('యు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>ఆచార్యున కెదిరింపకు
 బ్రోచిన దొర నిందసేయఁ బోకుము కార్యా
@@ -972,32 +924,29 @@
 మాచారము విడువఁబోకుమయ్య! కుమారా!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('చా', 'U'), ('ర్యు', '|'), ('న', '|'), ('కె', '|'), ('ది', '|'), ('రిం', 'U'), ('ప', '|'), ('కు', 'U'), ('బ్రో', 'U'), ('చి', '|'), ('న', '|'), ('దొ', '|'), ('ర', '|'), ('నిం', 'U'), ('ద', '|'), ('సే', 'U'), ('య', '|'), ('బో', 'U'), ('కు', '|'), ('ము', '|'), ('కా', 'U'), ('ర్యా', 'U'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ము', '|'), ('లొం', 'U'), ('టి', '|'), ('జే', 'U'), ('య', '|'), ('కు', '|'), ('మా', 'U'), ('చా', 'U'), ('ర', '|'), ('ము', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('బో', 'U'), ('కు', '|'), ('మ', 'U'), ('య్య', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>పుట్టినది మొదలు పరసతి
 బఁట్టగ జూచుటయు నింద పద్ధతి యనుచు
@@ -1005,32 +954,29 @@
 బుట్టిన జనతతులఁ గీర్తిఁ బొందుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('పు', 'U'), ('ట్టి', '|'), ('న', '|'), ('ది', '|'), ('మొ', '|'), ('ద', '|'), ('లు', '|'), ('ప', '|'), ('ర', '|'), ('స', '|'), ('తి', '|'), ('బ', 'U'), ('ట్ట', '|'), ('గ', '|'), ('జూ', 'U'), ('చు', '|'), ('ట', '|'), ('యు', '|'), ('నిం', 'U'), ('ద', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('డు', '|'), ('పు', '|'), ('డ', '|'), ('మిం', 'U'), ('బు', 'U'), ('ట్టి', '|'), ('న', '|'), ('జ', '|'), ('న', '|'), ('త', '|'), ('తు', '|'), ('ల', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('బొం', 'U'), ('దు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>కల్లలగుమాట లాడక
 యెల్ల జనంబులకు వేగ హృదయము కడు రం
@@ -1038,32 +984,29 @@
 తెల్లమి రహిఁ గీర్తిఁ గాంచు తెఱఁగు కుమారా!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('ల్ల', '|'), ('ల', '|'), ('గు', '|'), ('మా', 'U'), ('ట', '|'), ('లా', 'U'), ('డ', '|'), ('క', '|'), ('యె', 'U'), ('ల్ల', '|'), ('జ', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('కు', '|'), ('వే', 'U'), ('గ', '|'), ('హృ', '|'), ('ద', '|'), ('య', '|'), ('ము', '|'), ('క', '|'), ('డు', '|'), ('రం', 'U'), ('జి', 'U'), ('ల్ల', '|'), ('గ', '|'), ('బ', 'U'), ('ల్కు', '|'), ('ము', '|'), ('నీ', 'U'), ('క', '|'), ('ది', '|'), ('తె', 'U'), ('ల్ల', '|'), ('మి', '|'), ('ర', '|'), ('హి', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('గాం', 'U'), ('చు', '|'), ('తె', '|'), ('ఱ', '|'), ('గు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>ఏనాఁడైనను వినయము
 మానకుమీ, మత్సరమున మనుజేశులతోఁ
@@ -1071,32 +1014,29 @@
 మానమును బొందు మిదియె మతము కుమారా!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('నా', 'U'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('వి', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('మా', 'U'), ('న', '|'), ('కు', '|'), ('మీ', 'U'), ('మ', 'U'), ('త్స', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('మ', '|'), ('ను', '|'), ('జే', 'U'), ('శు', '|'), ('ల', '|'), ('తో', 'U'), ('బూ', 'U'), ('న', '|'), ('కు', '|'), ('మ', '|'), ('స', 'U'), ('మ్మ', '|'), ('త', '|'), ('ము', '|'), ('బ', '|'), ('హు', '|'), ('మా', 'U'), ('న', '|'), ('ము', '|'), ('ను', '|'), ('బొం', 'U'), ('దు', '|'), ('మి', '|'), ('ది', '|'), ('యె', '|'), ('మ', '|'), ('త', '|'), ('ము', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>నగఁగూడదు పరసతిఁ గనఁ
 దగు మాతృసమాన మెన్నఁ దగు నెవ్వరితోఁ
@@ -1104,32 +1044,29 @@
 పగఁగూడదు గనుము వృద్ధ పథము కుమారా!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('గ', '|'), ('గూ', 'U'), ('డ', '|'), ('దు', '|'), ('ప', '|'), ('ర', '|'), ('స', '|'), ('తి', '|'), ('గ', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('మా', 'U'), ('తృ', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('మె', 'U'), ('న్న', '|'), ('ద', '|'), ('గు', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('తో', 'U'), ('బ', '|'), ('గ', '|'), ('గూ', 'U'), ('డ', '|'), ('దొ', '|'), ('రు', '|'), ('ల', '|'), ('నిం', 'U'), ('దిం', 'U'), ('ప', '|'), ('గ', '|'), ('గూ', 'U'), ('డ', '|'), ('దు', '|'), ('గ', '|'), ('ను', '|'), ('ము', '|'), ('వృ', 'U'), ('ద్ధ', '|'), ('ప', '|'), ('థ', '|'), ('ము', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>చేయకుము కాని కార్యము
 పాయకుము మఱిన్‌ శుభం బవని భోజనమున్‌
@@ -1137,32 +1074,29 @@
 గూయకు మొరుమనసు నొచ్చుఁ గూఁత కుమారా!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('చే', 'U'), ('య', '|'), ('కు', '|'), ('ము', '|'), ('కా', 'U'), ('ని', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('పా', 'U'), ('య', '|'), ('కు', '|'), ('ము', '|'), ('మ', '|'), ('ఱిన్', 'U'), ('శు', '|'), ('భం', 'U'), ('బ', '|'), ('వ', '|'), ('ని', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('మున్', 'U'), ('జే', 'U'), ('య', '|'), ('కు', '|'), ('ము', '|'), ('రి', '|'), ('పు', '|'), ('గృ', '|'), ('హం', 'U'), ('బు', '|'), ('న', '|'), ('గూ', 'U'), ('య', '|'), ('కు', '|'), ('మొ', '|'), ('రు', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('నొ', 'U'), ('చ్చు', '|'), ('గూ', 'U'), ('త', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>పిన్నల పెద్దలయెడఁ గడు
 మన్ననచే మెలఁగు సుజన మార్గంబుల నీ
@@ -1170,32 +1104,29 @@
 నన్నియెడల నెన్నఁబడుదు వన్న! కుమారా!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('పి', 'U'), ('న్న', '|'), ('ల', '|'), ('పె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('యె', '|'), ('డ', '|'), ('గ', '|'), ('డు', '|'), ('మ', 'U'), ('న్న', '|'), ('న', '|'), ('చే', 'U'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('సు', '|'), ('జ', '|'), ('న', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('ల', '|'), ('నీ', 'U'), ('వె', 'U'), ('న్ని', '|'), ('కొ', '|'), ('ని', '|'), ('తి', '|'), ('రు', '|'), ('గు', '|'), ('చుం', 'U'), ('డి', '|'), ('న', '|'), ('న', 'U'), ('న్ని', '|'), ('యె', '|'), ('డ', '|'), ('ల', '|'), ('నె', 'U'), ('న్న', '|'), ('బ', '|'), ('డు', '|'), ('దు', '|'), ('వ', 'U'), ('న్న', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>తనకును విద్యాభ్యాసం
 బును జేసిన వానికన్న బొలుపుఁగ బదిరె
@@ -1203,32 +1134,29 @@
 జననియుఁ బదిరెట్లు తూఁగు జగతి కుమారా!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('కు', '|'), ('ను', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('భ్యా', 'U'), ('సం', 'U'), ('బు', '|'), ('ను', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('క', 'U'), ('న్న', '|'), ('బొ', '|'), ('లు', '|'), ('పు', '|'), ('గ', '|'), ('బ', '|'), ('ది', '|'), ('రె', 'U'), ('ట్ల', '|'), ('ను', '|'), ('దూ', 'U'), ('గు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('యు', '|'), ('బ', '|'), ('ది', '|'), ('రె', 'U'), ('ట్లు', '|'), ('తూ', 'U'), ('గు', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>తమ్ములు తమ యన్న యెడ భ
 యమ్మును భక్తియును గలిగి యారాధింపన్‌
@@ -1236,32 +1164,29 @@
 దమ్మునఁ బ్రేమింపఁ గీర్తి దనరుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('మ్ము', '|'), ('లు', '|'), ('త', '|'), ('మ', '|'), ('య', 'U'), ('న్న', '|'), ('యె', '|'), ('డ', '|'), ('భ', '|'), ('య', 'U'), ('మ్ము', '|'), ('ను', '|'), ('భ', 'U'), ('క్తి', '|'), ('యు', '|'), ('ను', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('యా', 'U'), ('రా', 'U'), ('ధిం', 'U'), ('పన్', 'U'), ('ద', 'U'), ('మ్ము', '|'), ('ల', '|'), ('న', 'U'), ('న్న', '|'), ('యు', '|'), ('స', 'U'), ('మ్మో', 'U'), ('ద', 'U'), ('మ్ము', '|'), ('న', 'U'), ('బ్రే', 'U'), ('మిం', 'U'), ('ప', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('ద', '|'), ('న', '|'), ('రు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>అప్పం దన తల్లిగ మే
 లొప్పం గని జరుపవలయు నుర్వీస్థలిఁ జి
@@ -1269,32 +1194,29 @@
 యప్పడఁతియు మాతృతుల్య యండ్రు కుమారా!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ప్పం', 'U'), ('ద', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('గ', '|'), ('మే', 'U'), ('లొ', 'U'), ('ప్పం', 'U'), ('గ', '|'), ('ని', '|'), ('జ', '|'), ('రు', '|'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('ను', 'U'), ('ర్వీ', 'U'), ('స్థ', '|'), ('లి', '|'), ('జి', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('చ', 'U'), ('న్ని', '|'), ('డి', '|'), ('మ', '|'), ('ని', '|'), ('పి', '|'), ('న', '|'), ('య', 'U'), ('ప్ప', '|'), ('డ', '|'), ('తి', '|'), ('యు', '|'), ('మా', 'U'), ('తృ', '|'), ('తు', 'U'), ('ల్య', '|'), ('యం', 'U'), ('డ్రు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>బూటకపు వర్తనముఁ గని,
 జూటరి వీఁడనుచుఁ దప్పఁ జూతురుగా! యా
@@ -1302,32 +1224,29 @@
 పాటించి నటించువాఁడె నరుఁడు కుమారా!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('బూ', 'U'), ('ట', '|'), ('క', '|'), ('పు', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('ము', '|'), ('గ', '|'), ('ని', '|'), ('జూ', 'U'), ('ట', '|'), ('రి', '|'), ('వీ', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('ద', 'U'), ('ప్ప', '|'), ('జూ', 'U'), ('తు', '|'), ('రు', '|'), ('గా', 'U'), ('యా', 'U'), ('బా', 'U'), ('ట', '|'), ('ను', '|'), ('వి', '|'), ('డి', '|'), ('స', 'U'), ('త్య', '|'), ('ము', '|'), ('మ', '|'), ('ది', '|'), ('పా', 'U'), ('టిం', 'U'), ('చి', '|'), ('న', '|'), ('టిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డె', '|'), ('న', '|'), ('రు', '|'), ('డు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>తనయుఁడు చెడుగైయుండిన
 జనకుని తప్పన్నమాట సత్యమెఱుఁగుదు గా
@@ -1335,32 +1254,29 @@
 కు నపఖ్యాతి యగురీతి గొనకు కుమారా!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('యు', '|'), ('డు', '|'), ('చె', '|'), ('డు', '|'), ('గై', 'U'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('జ', '|'), ('న', '|'), ('కు', '|'), ('ని', '|'), ('త', 'U'), ('ప్ప', 'U'), ('న్న', '|'), ('మా', 'U'), ('ట', '|'), ('స', 'U'), ('త్య', '|'), ('మె', '|'), ('ఱు', '|'), ('గు', '|'), ('దు', '|'), ('గా', 'U'), ('వు', '|'), ('న', '|'), ('నీ', 'U'), ('జ', '|'), ('న', '|'), ('నీ', 'U'), ('జ', '|'), ('న', '|'), ('కు', '|'), ('ల', '|'), ('కు', '|'), ('న', '|'), ('ప', 'U'), ('ఖ్యా', 'U'), ('తి', '|'), ('య', '|'), ('గు', '|'), ('రీ', 'U'), ('తి', '|'), ('గొ', '|'), ('న', '|'), ('కు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>తల్లిని దండ్రిని సహజల
 నల్లరఁ బెట్టినను వార లలుగుచు నీపై
@@ -1368,32 +1284,29 @@
 కల్లరి వీఁడనుచుఁ గీర్తి గందఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('దం', 'U'), ('డ్రి', '|'), ('ని', '|'), ('స', '|'), ('హ', '|'), ('జ', '|'), ('ల', '|'), ('న', 'U'), ('ల్ల', '|'), ('ర', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('ను', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('లు', '|'), ('గు', '|'), ('చు', '|'), ('నీ', 'U'), ('పై', 'U'), ('ను', 'U'), ('ల్ల', '|'), ('ము', '|'), ('ల', '|'), ('రో', 'U'), ('యు', '|'), ('చుం', 'U'), ('దు', '|'), ('రు', '|'), ('క', 'U'), ('ల్ల', '|'), ('రి', '|'), ('వీ', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('గం', 'U'), ('ద', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>లోకులు తనుఁ గొనియాడ వి
 వేకి యదియు నింద గాక విననొల్లఁడు సు
@@ -1401,32 +1314,29 @@
 చేకొనవలె నట్టి నడత చిన్ని కుమారా!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('లో', 'U'), ('కు', '|'), ('లు', '|'), ('త', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డ', '|'), ('వి', '|'), ('వే', 'U'), ('కి', '|'), ('య', '|'), ('ది', '|'), ('యు', '|'), ('నిం', 'U'), ('ద', '|'), ('గా', 'U'), ('క', '|'), ('వి', '|'), ('న', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('డు', '|'), ('సు', 'U'), ('శ్లో', 'U'), ('కు', '|'), ('ల', '|'), ('చ', '|'), ('రి', '|'), ('తం', 'U'), ('బి', 'U'), ('ట్టి', '|'), ('ది', '|'), ('చే', 'U'), ('కొ', '|'), ('న', '|'), ('వ', '|'), ('లె', '|'), ('న', 'U'), ('ట్టి', '|'), ('న', '|'), ('డ', '|'), ('త', '|'), ('చి', 'U'), ('న్ని', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>ధరణిని బరోపకారా
 చరణవ్రత నిష్ఠ నెపుడు సలుపుము నీ కా
@@ -1434,32 +1344,29 @@
 వర కర్మము కంటె మేలు వచ్చుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('ని', '|'), ('బ', '|'), ('రో', 'U'), ('ప', '|'), ('కా', 'U'), ('రా', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', 'U'), ('వ్ర', '|'), ('త', '|'), ('ని', 'U'), ('ష్ఠ', '|'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('స', '|'), ('లు', '|'), ('పు', '|'), ('ము', '|'), ('నీ', 'U'), ('కా', 'U'), ('తె', '|'), ('ఱ', '|'), ('గు', '|'), ('ప', '|'), ('వా', 'U'), ('సా', 'U'), ('ది', 'U'), ('వ్ర', '|'), ('త', '|'), ('వ', '|'), ('ర', '|'), ('క', '|'), ('ర్మ', '|'), ('ము', '|'), ('కం', 'U'), ('టె', '|'), ('మే', 'U'), ('లు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>వగవకు గడిచిన దానికిఁ
 బొగడకు దుర్మతుల నెపుడు, పొసగని పనికై
@@ -1467,32 +1374,29 @@
 తగ దైవగతిం బొసంగు ధరను గుమారా!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('గ', '|'), ('వ', '|'), ('కు', '|'), ('గ', '|'), ('డి', '|'), ('చి', '|'), ('న', '|'), ('దా', 'U'), ('ని', '|'), ('కి', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('కు', '|'), ('దు', '|'), ('ర్మ', '|'), ('తు', '|'), ('ల', '|'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('పొ', '|'), ('స', '|'), ('గ', '|'), ('ని', '|'), ('ప', '|'), ('ని', '|'), ('కై', 'U'), ('యొ', '|'), ('గి', '|'), ('దీ', 'U'), ('న', '|'), ('త', '|'), ('నొం', 'U'), ('ద', '|'), ('కు', '|'), ('మీ', 'U'), ('త', '|'), ('గ', '|'), ('దై', 'U'), ('వ', '|'), ('గ', '|'), ('తిం', 'U'), ('బొ', '|'), ('సం', 'U'), ('గు', '|'), ('ధ', '|'), ('ర', '|'), ('ను', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>పనిఁబూని జనులు సంతత
 మునఁ దాలిమి సత్యశౌచములను బ్రవర్తిం
@@ -1500,32 +1404,29 @@
 గనుగొను మిదె దొడ్డనడక గాఁగ కుమారా!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ని', '|'), ('బూ', 'U'), ('ని', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('ము', '|'), ('న', '|'), ('దా', 'U'), ('లి', '|'), ('మి', '|'), ('స', 'U'), ('త్య', '|'), ('శౌ', 'U'), ('చ', '|'), ('ము', '|'), ('ల', '|'), ('ను', 'U'), ('బ్ర', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చి', '|'), ('న', '|'), ('య', '|'), ('శ', '|'), ('ము', '|'), ('నొం', 'U'), ('దు', '|'), ('చుం', 'U'), ('దు', '|'), ('రు', '|'), ('గ', '|'), ('ను', '|'), ('గొ', '|'), ('ను', '|'), ('మి', '|'), ('దె', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('న', '|'), ('డ', '|'), ('క', '|'), ('గా', 'U'), ('గ', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>విను లోకంబున ధర్మం
 బఁనగఁ గులాచార మట్ల నరసి నడువ! దాఁ
@@ -1533,32 +1434,29 @@
 మునఁ బరమునఁ బొందు సౌఖ్యములను గుమారా!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ను', '|'), ('లో', 'U'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('ధ', '|'), ('ర్మం', 'U'), ('బ', '|'), ('న', '|'), ('గ', '|'), ('గు', '|'), ('లా', 'U'), ('చా', 'U'), ('ర', '|'), ('మ', 'U'), ('ట్ల', '|'), ('న', '|'), ('ర', '|'), ('సి', '|'), ('న', '|'), ('డు', '|'), ('వ', '|'), ('దా', 'U'), ('గ', '|'), ('ను', '|'), ('నా', 'U'), ('యుః', 'U'), ('కీ', 'U'), ('ర్తు', '|'), ('ల', '|'), ('ని', '|'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('బ', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('బొం', 'U'), ('దు', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>సరివారిలోన నేర్పునఁ
 దిరిగెడు వారలకుఁగాక తెరువాటులలో
@@ -1566,32 +1464,29 @@
 బరువేటికిఁగీడె యనుభవంబు గుమారా!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('రి', '|'), ('వా', 'U'), ('రి', '|'), ('లో', 'U'), ('న', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', '|'), ('ది', '|'), ('రి', '|'), ('గె', '|'), ('డు', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('కు', '|'), ('గా', 'U'), ('క', '|'), ('తె', '|'), ('రు', '|'), ('వా', 'U'), ('టు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('ర', '|'), ('యు', '|'), ('చు', '|'), ('మె', '|'), ('ల', '|'), ('గె', '|'), ('డి', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('బ', '|'), ('రు', '|'), ('వే', 'U'), ('టి', '|'), ('కి', '|'), ('గీ', 'U'), ('డె', '|'), ('య', '|'), ('ను', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>ఒరు లెవ్వరేని దనతోఁ
 బరిభాషించినను మేలు పలుకవలయు సా
@@ -1599,32 +1494,29 @@
 న్గరము నొనర్పంగరాదు  గదర! కుమారా!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('రు', '|'), ('లె', 'U'), ('వ్వ', '|'), ('రే', 'U'), ('ని', '|'), ('ద', '|'), ('న', '|'), ('తో', 'U'), ('బ', '|'), ('రి', '|'), ('భా', 'U'), ('షిం', 'U'), ('చి', '|'), ('న', '|'), ('ను', '|'), ('మే', 'U'), ('లు', '|'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('సా', 'U'), ('ద', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('ల', '|'), ('చో', 'U'), ('ట', '|'), ('గీ', 'U'), ('డు', 'U'), ('న్గ', '|'), ('ర', '|'), ('ము', '|'), ('నొ', '|'), ('న', 'U'), ('ర్పం', 'U'), ('గ', '|'), ('రా', 'U'), ('దు', '|'), ('గ', '|'), ('ద', '|'), ('ర', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>సిరి చేర్చు బంధువుల నా
 సిరియే శుభముల నొసంగు చెలువులఁ గూర్చున్‌
@@ -1632,32 +1524,29 @@
 ధరలోఁబొగడించునంచుఁ దలఁపు కుమారా!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('సి', '|'), ('రి', '|'), ('చే', 'U'), ('ర్చు', '|'), ('బం', 'U'), ('ధు', '|'), ('వు', '|'), ('ల', '|'), ('నా', 'U'), ('సి', '|'), ('రి', '|'), ('యే', 'U'), ('శు', '|'), ('భ', '|'), ('ము', '|'), ('ల', '|'), ('నొ', '|'), ('సం', 'U'), ('గు', '|'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('ల', '|'), ('గూ', 'U'), ('ర్చున్', 'U'), ('సి', '|'), ('రి', '|'), ('యే', 'U'), ('గు', '|'), ('ణ', '|'), ('వం', 'U'), ('తుం', 'U'), ('డ', '|'), ('ని', '|'), ('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('బొ', '|'), ('గ', '|'), ('డిం', 'U'), ('చు', '|'), ('నం', 'U'), ('చు', '|'), ('ద', '|'), ('ల', '|'), ('పు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>ఆకులతఁబడకు మాపద,
 నేకతమునఁ జనకు త్రోవ, నింతికిఁదగు నం
@@ -1665,32 +1554,29 @@
 లోకులు నిన్నెన్న సుగుణ లోల! కుమారా!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('కు', '|'), ('ల', '|'), ('త', '|'), ('బ', '|'), ('డ', '|'), ('కు', '|'), ('మా', 'U'), ('ప', '|'), ('ద', '|'), ('నే', 'U'), ('క', '|'), ('త', '|'), ('ము', '|'), ('న', '|'), ('జ', '|'), ('న', '|'), ('కు', 'U'), ('త్రో', 'U'), ('వ', '|'), ('నిం', 'U'), ('తి', '|'), ('కి', '|'), ('ద', '|'), ('గు', '|'), ('నం', 'U'), ('తే', 'U'), ('కా', 'U'), ('ని', '|'), ('చ', '|'), ('న', '|'), ('వొ', '|'), ('సం', 'U'), ('గ', '|'), ('కు', '|'), ('లో', 'U'), ('కు', '|'), ('లు', '|'), ('ని', 'U'), ('న్నె', 'U'), ('న్న', '|'), ('సు', '|'), ('గు', '|'), ('ణ', '|'), ('లో', 'U'), ('ల', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>తనదు కులాంగన యాలో
 చనమున మంత్రియును భుక్తి సమయంబునఁ దా
@@ -1698,32 +1584,29 @@
 వనజేక్షణ యయినఁ బుణ్య వశము కుమారా!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('దు', '|'), ('కు', '|'), ('లాం', 'U'), ('గ', '|'), ('న', '|'), ('యా', 'U'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('మం', 'U'), ('త్రి', '|'), ('యు', '|'), ('ను', '|'), ('భు', 'U'), ('క్తి', '|'), ('స', '|'), ('మ', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('దా', 'U'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('యు', '|'), ('ర', '|'), ('తి', '|'), ('లో', 'U'), ('రం', 'U'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('జే', 'U'), ('క్ష', '|'), ('ణ', '|'), ('య', '|'), ('యి', '|'), ('న', '|'), ('బు', 'U'), ('ణ్య', '|'), ('వ', '|'), ('శ', '|'), ('ము', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>మనుజుఁడు సభ్యుఁడు దానై
 గనియున్న యధార్థమెల్ల గానని యట్లా
@@ -1731,32 +1614,29 @@
 ఘనమగు పాతకము నాఁడు గనును గుమారా!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ను', '|'), ('జు', '|'), ('డు', '|'), ('స', 'U'), ('భ్యు', '|'), ('డు', '|'), ('దా', 'U'), ('నై', 'U'), ('గ', '|'), ('ని', '|'), ('యు', 'U'), ('న్న', '|'), ('య', '|'), ('ధా', 'U'), ('ర్థ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('న', '|'), ('ని', '|'), ('య', 'U'), ('ట్లా', 'U'), ('మ', '|'), ('ను', '|'), ('జుం', 'U'), ('డు', '|'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('కు', 'U'), ('న్న', '|'), ('ను', '|'), ('ఘ', '|'), ('న', '|'), ('మ', '|'), ('గు', '|'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('ము', '|'), ('నా', 'U'), ('డు', '|'), ('గ', '|'), ('ను', '|'), ('ను', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>అంగీకార రహిత మగు
 సంగతికి బోవరాదు సామాన్యులతో
@@ -1764,32 +1644,29 @@
 వెంగలితనమండ్రు వినుము కుమారా!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('గీ', 'U'), ('కా', 'U'), ('ర', '|'), ('ర', '|'), ('హి', '|'), ('త', '|'), ('మ', '|'), ('గు', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('కి', '|'), ('బో', 'U'), ('వ', '|'), ('రా', 'U'), ('దు', '|'), ('సా', 'U'), ('మా', 'U'), ('న్యు', '|'), ('ల', '|'), ('తో', 'U'), ('డం', 'U'), ('గ', '|'), ('డు', '|'), ('జ', '|'), ('గ', '|'), ('డ', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('జ', '|'), ('న', '|'), ('వెం', 'U'), ('గ', '|'), ('లి', '|'), ('త', '|'), ('న', '|'), ('మం', 'U'), ('డ్రు', '|'), ('వి', '|'), ('ను', '|'), ('ము', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>అల దేవగృహము కడ పయి
 రుల గోవాటములయందుఁ ద్రోవలలో ర
@@ -1797,32 +1674,29 @@
 మలమూత్ర విసర్జనంబు మహిని గుమారా!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ల', '|'), ('దే', 'U'), ('వ', '|'), ('గృ', '|'), ('హ', '|'), ('ము', '|'), ('క', '|'), ('డ', '|'), ('ప', '|'), ('యి', '|'), ('రు', '|'), ('ల', '|'), ('గో', 'U'), ('వా', 'U'), ('ట', '|'), ('ము', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('ద్రో', 'U'), ('వ', '|'), ('ల', '|'), ('లో', 'U'), ('ర', 'U'), ('చ్చ', '|'), ('ల', '|'), ('కొ', 'U'), ('ట్ట', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('నొ', 'U'), ('ప్ప', '|'), ('దు', '|'), ('మ', '|'), ('ల', '|'), ('మూ', 'U'), ('త్ర', '|'), ('వి', '|'), ('స', 'U'), ('ర్జ', '|'), ('నం', 'U'), ('బు', '|'), ('మ', '|'), ('హి', '|'), ('ని', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>తనుజులను గురుల వృద్ధుల
 జననీ జనకులను సాధు జనుల నెఁవడు దా
@@ -1830,32 +1704,29 @@
 జనుఁడే జీవన్మృతుండు జగతిఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ను', '|'), ('జు', '|'), ('ల', '|'), ('ను', '|'), ('గు', '|'), ('రు', '|'), ('ల', '|'), ('వృ', 'U'), ('ద్ధు', '|'), ('ల', '|'), ('జ', '|'), ('న', '|'), ('నీ', 'U'), ('జ', '|'), ('న', '|'), ('కు', '|'), ('ల', '|'), ('ను', '|'), ('సా', 'U'), ('ధు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('నె', '|'), ('వ', '|'), ('డు', '|'), ('దా', 'U'), ('ఘ', '|'), ('ను', '|'), ('డ', 'U'), ('య్యు', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('డో', 'U'), ('యా', 'U'), ('జ', '|'), ('ను', '|'), ('డే', 'U'), ('జీ', 'U'), ('వ', 'U'), ('న్మృ', '|'), ('తుం', 'U'), ('డు', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>ధీరుఁడు తనదగు సంపద
 జారినయెడఁ జింత నొందఁజాలక తా ల
@@ -1863,32 +1734,29 @@
 భోరుహములు గొలిచి ముక్తిఁ బొందుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('ధీ', 'U'), ('రు', '|'), ('డు', '|'), ('త', '|'), ('న', '|'), ('ద', '|'), ('గు', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('జా', 'U'), ('రి', '|'), ('న', '|'), ('యె', '|'), ('డ', '|'), ('జిం', 'U'), ('త', '|'), ('నొం', 'U'), ('ద', '|'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('తా', 'U'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('ర', '|'), ('మ', '|'), ('ణు', '|'), ('ని', '|'), ('వ', '|'), ('ర', '|'), ('చ', '|'), ('ర', '|'), ('ణాం', 'U'), ('భో', 'U'), ('రు', '|'), ('హ', '|'), ('ము', '|'), ('లు', '|'), ('గొ', '|'), ('లి', '|'), ('చి', '|'), ('ము', 'U'), ('క్తి', '|'), ('బొం', 'U'), ('దు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>పాపపుఁబని మదిఁ దలఁపకు,
 చేపట్టినవారి విడువఁ జేయకు, కీడున్‌
@@ -1896,32 +1764,29 @@
 ప్రాపును మది నమ్మఁబోకు రహిని గుమారా!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ప', '|'), ('పు', '|'), ('బ', '|'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('కు', '|'), ('చే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('జే', 'U'), ('య', '|'), ('కు', '|'), ('కీ', 'U'), ('డున్', 'U'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('కు', 'U'), ('క్రూ', 'U'), ('రు', '|'), ('ల', 'U'), ('ప్రా', 'U'), ('పు', '|'), ('ను', '|'), ('మ', '|'), ('ది', '|'), ('న', 'U'), ('మ్మ', '|'), ('బో', 'U'), ('కు', '|'), ('ర', '|'), ('హి', '|'), ('ని', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>జగడంబు లాడుచోటను
 మగువలు వసియించుచోట మదగజము దరిన్‌
@@ -1929,32 +1794,29 @@
 మగిడి చనఁగవలయుఁ జలము మాని గుమారా!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('గ', '|'), ('డం', 'U'), ('బు', '|'), ('లా', 'U'), ('డు', '|'), ('చో', 'U'), ('ట', '|'), ('ను', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('లు', '|'), ('వ', '|'), ('సి', '|'), ('యిం', 'U'), ('చు', '|'), ('చో', 'U'), ('ట', '|'), ('మ', '|'), ('ద', '|'), ('గ', '|'), ('జ', '|'), ('ము', '|'), ('ద', '|'), ('రిన్', 'U'), ('బ', '|'), ('గ', '|'), ('తుం', 'U'), ('డు', '|'), ('తి', '|'), ('రు', '|'), ('గు', '|'), ('చో', 'U'), ('టన్', 'U'), ('మ', '|'), ('గి', '|'), ('డి', '|'), ('చ', '|'), ('న', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('జ', '|'), ('ల', '|'), ('ము', '|'), ('మా', 'U'), ('ని', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>దుర్జనుల నైనఁ దిట్టకు
 వర్జింపకు సుజనగోష్ఠి, పరులను నెల్లన్‌
@@ -1962,32 +1824,29 @@
 దుర్జనుఁడండ్రు నిను నిందఁ దోఁపఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('దు', 'U'), ('ర్జ', '|'), ('ను', '|'), ('ల', '|'), ('నై', 'U'), ('న', '|'), ('ది', 'U'), ('ట్ట', '|'), ('కు', '|'), ('వ', 'U'), ('ర్జిం', 'U'), ('ప', '|'), ('కు', '|'), ('సు', '|'), ('జ', '|'), ('న', '|'), ('గో', 'U'), ('ష్ఠి', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('ను', '|'), ('నె', '|'), ('ల్లన్', 'U'), ('ని', 'U'), ('ర్జిం', 'U'), ('తు', '|'), ('న', '|'), ('ను', '|'), ('చు', '|'), ('ద్రు', 'U'), ('ళ్ళ', '|'), ('కు', '|'), ('దు', 'U'), ('ర్జ', '|'), ('ను', '|'), ('డం', 'U'), ('డ్రు', '|'), ('ని', '|'), ('ను', '|'), ('నిం', 'U'), ('ద', '|'), ('దో', 'U'), ('ప', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>తిరుగకు దుర్మార్గులతో
 నరుగకు గహనాంతర స్థలాదుల కొంటిన్‌
@@ -1995,32 +1854,29 @@
 న్మరువకు మేల్‌ హితులయెడల మదిని గుమారా!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('తి', '|'), ('రు', '|'), ('గ', '|'), ('కు', '|'), ('దు', '|'), ('ర్మా', 'U'), ('ర్గు', '|'), ('ల', '|'), ('తో', 'U'), ('న', '|'), ('రు', '|'), ('గ', '|'), ('కు', '|'), ('గ', '|'), ('హ', '|'), ('నాం', 'U'), ('త', '|'), ('ర', 'U'), ('స్థ', '|'), ('లా', 'U'), ('దు', '|'), ('ల', '|'), ('కొం', 'U'), ('టిన్', 'U'), ('జ', '|'), ('రు', '|'), ('గ', '|'), ('కు', '|'), ('శ', 'U'), ('త్రు', '|'), ('ల', '|'), ('మ్రో', 'U'), ('ల', 'U'), ('న్మ', '|'), ('రు', '|'), ('వ', '|'), ('కు', '|'), ('మేల్', 'U'), ('హి', '|'), ('తు', '|'), ('ల', '|'), ('యె', '|'), ('డ', '|'), ('ల', '|'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>తరళాక్షుల యెడ నెన్నఁడుఁ
 బరిహాసాలాపములను బచరింపకుమీ
@@ -2028,32 +1884,29 @@
 నురుదోషం బనుచుఁ దలఁపుచుండు కుమారా!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ర', '|'), ('ళా', 'U'), ('క్షు', '|'), ('ల', '|'), ('యె', '|'), ('డ', '|'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('బ', '|'), ('రి', '|'), ('హా', 'U'), ('సా', 'U'), ('లా', 'U'), ('ప', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('బ', '|'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('కు', '|'), ('మీ', 'U'), ('ప', '|'), ('రి', '|'), ('కిం', 'U'), ('చి', '|'), ('ని', '|'), ('రీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('న', '|'), ('ను', '|'), ('రు', '|'), ('దో', 'U'), ('షం', 'U'), ('బ', '|'), ('ను', '|'), ('చు', '|'), ('ద', '|'), ('ల', '|'), ('పు', '|'), ('చుం', 'U'), ('డు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>సంపద గలవారిని మో
 దింపుచుఁ జుట్టుకొనియుందు రెల్లప్పుడు స
@@ -2061,32 +1914,29 @@
 క్షింపుదు రవివేకజనులు క్షితిని గుమారా!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('సం', 'U'), ('ప', '|'), ('ద', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('రి', '|'), ('ని', '|'), ('మో', 'U'), ('దిం', 'U'), ('పు', '|'), ('చు', '|'), ('జు', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ని', '|'), ('యుం', 'U'), ('దు', '|'), ('రె', 'U'), ('ల్ల', 'U'), ('ప్పు', '|'), ('డు', '|'), ('స', 'U'), ('త్సం', 'U'), ('ప', '|'), ('ద', '|'), ('తొ', '|'), ('లం', 'U'), ('గి', '|'), ('న', '|'), ('ను', '|'), ('పే', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('దు', '|'), ('ర', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('జ', '|'), ('ను', '|'), ('లు', 'U'), ('క్షి', '|'), ('తి', '|'), ('ని', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>కాయమున నాటు శరము లు
 పాయంబునఁ దీయవచ్చు బహు నిష్ఠురతన్‌
@@ -2094,32 +1944,29 @@
 పాయవుగా యెపుడు వెగడు పరచుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('య', '|'), ('ము', '|'), ('న', '|'), ('నా', 'U'), ('టు', '|'), ('శ', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('పా', 'U'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('దీ', 'U'), ('య', '|'), ('వ', 'U'), ('చ్చు', '|'), ('బ', '|'), ('హు', '|'), ('ని', 'U'), ('ష్ఠు', '|'), ('ర', '|'), ('తన్', 'U'), ('గూ', 'U'), ('య', '|'), ('మ', '|'), ('ది', '|'), ('నా', 'U'), ('టు', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('పా', 'U'), ('య', '|'), ('వు', '|'), ('గా', 'U'), ('యె', '|'), ('పు', '|'), ('డు', '|'), ('వె', '|'), ('గ', '|'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('చు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>ధరణీజాతము లే యే
 తరి నెట్లెట్లను ఫలించుఁ దగనటు పూర్వా
@@ -2127,32 +1974,29 @@
 గరమనుభవనీయ మగును గాదె? కుమారా!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('జా', 'U'), ('త', '|'), ('ము', '|'), ('లే', 'U'), ('యే', 'U'), ('త', '|'), ('రి', '|'), ('నె', 'U'), ('ట్లె', 'U'), ('ట్ల', '|'), ('ను', '|'), ('ఫ', '|'), ('లిం', 'U'), ('చు', '|'), ('ద', '|'), ('గ', '|'), ('న', '|'), ('టు', '|'), ('పూ', 'U'), ('ర్వా', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('ఫ', '|'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('గ', '|'), ('ర', '|'), ('మ', '|'), ('ను', '|'), ('భ', '|'), ('వ', '|'), ('నీ', 'U'), ('య', '|'), ('మ', '|'), ('గు', '|'), ('ను', '|'), ('గా', 'U'), ('దె', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>పెను కోపము గర్వము ను
 బ్బును జలతయు దురభిమానమును వ్యాపారం
@@ -2160,32 +2004,29 @@
 ల్పుని గుణము లటంచుఁ దెలివిఁ బొందు కుమారా!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('పె', '|'), ('ను', '|'), ('కో', 'U'), ('ప', '|'), ('ము', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('ను', 'U'), ('బ్బు', '|'), ('ను', '|'), ('జ', '|'), ('ల', '|'), ('త', '|'), ('యు', '|'), ('దు', '|'), ('ర', '|'), ('భి', '|'), ('మా', 'U'), ('న', '|'), ('ము', '|'), ('ను', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('జొ', '|'), ('ర', '|'), ('క', '|'), ('యు', '|'), ('ని', '|'), ('కి', '|'), ('యు', '|'), ('ను', '|'), ('న', 'U'), ('ల్పు', '|'), ('ని', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('దె', '|'), ('లి', '|'), ('వి', '|'), ('బొం', 'U'), ('దు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>విత్తముఁ గూర్చిన మనుజుం
 డుత్తమ దానంబు భోగ మొందని యెడ భూ
@@ -2193,32 +2034,29 @@
 వృత్తి కరంబగును నట్టి పదవి కుమారా!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('వి', 'U'), ('త్త', '|'), ('ము', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('న', '|'), ('మ', '|'), ('ను', '|'), ('జుం', 'U'), ('డు', 'U'), ('త్త', '|'), ('మ', '|'), ('దా', 'U'), ('నం', 'U'), ('బు', '|'), ('భో', 'U'), ('గ', '|'), ('మొం', 'U'), ('ద', '|'), ('ని', '|'), ('యె', '|'), ('డ', '|'), ('భూ', 'U'), ('భృ', 'U'), ('త్త', 'U'), ('స్క', '|'), ('ర', '|'), ('శి', '|'), ('ఖి', '|'), ('గ', '|'), ('త', '|'), ('ము', '|'), ('ని', '|'), ('వృ', 'U'), ('త్తి', '|'), ('క', '|'), ('రం', 'U'), ('బ', '|'), ('గు', '|'), ('ను', '|'), ('న', 'U'), ('ట్టి', '|'), ('ప', '|'), ('ద', '|'), ('వి', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>సద్గోష్ఠి సిరియు నొసఁగును
 సద్గోష్ఠియె కీర్తిఁబెంచు సంతుష్ఠిని నా
@@ -2226,32 +2064,29 @@
 సద్గోష్ఠియె పాపములను జంపుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('ద్గో', 'U'), ('ష్ఠి', '|'), ('సి', '|'), ('రి', '|'), ('యు', '|'), ('నొ', '|'), ('స', '|'), ('గు', '|'), ('ను', '|'), ('స', 'U'), ('ద్గో', 'U'), ('ష్ఠి', '|'), ('యె', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('బెం', 'U'), ('చు', '|'), ('సం', 'U'), ('తు', 'U'), ('ష్ఠి', '|'), ('ని', '|'), ('నా', 'U'), ('స', 'U'), ('ద్గో', 'U'), ('ష్ఠి', '|'), ('యె', '|'), ('యొ', '|'), ('న', '|'), ('గూ', 'U'), ('ర్చు', '|'), ('ను', '|'), ('స', 'U'), ('ద్గో', 'U'), ('ష్ఠి', '|'), ('యె', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('జం', 'U'), ('పు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>ఘనులు విని సమ్మతింపని
 పనులకుఁ జొరఁబడక పొగడు పనులకు జొరు, మెం
@@ -2259,32 +2094,29 @@
 జ్జనములతోఁ గలసిమెలఁగు జగతిఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('ను', '|'), ('లు', '|'), ('వి', '|'), ('ని', '|'), ('స', 'U'), ('మ్మ', '|'), ('తిం', 'U'), ('ప', '|'), ('ని', '|'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('జొ', '|'), ('ర', '|'), ('బ', '|'), ('డ', '|'), ('క', '|'), ('పొ', '|'), ('గ', '|'), ('డు', '|'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('జొ', '|'), ('రు', '|'), ('మెం', 'U'), ('దు', '|'), ('ను', '|'), ('బొం', 'U'), ('క', '|'), ('బో', 'U'), ('క', '|'), ('స', 'U'), ('జ్జ', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('తో', 'U'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('జ', '|'), ('గ', '|'), ('తి', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>జారులతోఁ జోరులతోఁ
 గ్రూరులతో నెపుడు పొత్తుఁ గోరక మది స
@@ -2292,32 +2124,29 @@
 ధారుఁడవై బ్రతుకు, కీర్తి తనరఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('జా', 'U'), ('రు', '|'), ('ల', '|'), ('తో', 'U'), ('జో', 'U'), ('రు', '|'), ('ల', '|'), ('తో', 'U'), ('గ్రూ', 'U'), ('రు', '|'), ('ల', '|'), ('తో', 'U'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('పొ', 'U'), ('త్తు', '|'), ('గో', 'U'), ('ర', '|'), ('క', '|'), ('మ', '|'), ('ది', '|'), ('స', 'U'), ('త్పూ', 'U'), ('రు', '|'), ('ష', '|'), ('ప', '|'), ('దాం', 'U'), ('బు', '|'), ('జా', 'U'), ('తా', 'U'), ('ధా', 'U'), ('రు', '|'), ('డ', '|'), ('వై', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('త', '|'), ('న', '|'), ('ర', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>జ్ఞానుల చరితము వీనుల
 నానుచు సత్పురుషగోష్ఠి ననఘం బనుచున్‌
@@ -2325,32 +2154,29 @@
 దానెఱిఁగిన యంత మఱవఁ దగదు కుమారా!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('జ్ఞా', 'U'), ('ను', '|'), ('ల', '|'), ('చ', '|'), ('రి', '|'), ('త', '|'), ('ము', '|'), ('వీ', 'U'), ('ను', '|'), ('ల', '|'), ('నా', 'U'), ('ను', '|'), ('చు', '|'), ('స', 'U'), ('త్పు', '|'), ('రు', '|'), ('ష', '|'), ('గో', 'U'), ('ష్ఠి', '|'), ('న', '|'), ('న', '|'), ('ఘం', 'U'), ('బ', '|'), ('ను', '|'), ('చున్', 'U'), ('బూ', 'U'), ('ను', '|'), ('ము', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ప', '|'), ('థం', 'U'), ('బు', '|'), ('ను', '|'), ('దా', 'U'), ('నె', '|'), ('ఱి', '|'), ('గి', '|'), ('న', '|'), ('యం', 'U'), ('త', '|'), ('మ', '|'), ('ఱ', '|'), ('వ', '|'), ('ద', '|'), ('గ', '|'), ('దు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>రోషావేశము జనులకు
 దోషము తలపోయ విపుల దుఃఖకరమునౌ,
@@ -2358,32 +2184,29 @@
 తోషింతురు బుధులు హితము దోఁపఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('రో', 'U'), ('షా', 'U'), ('వే', 'U'), ('శ', '|'), ('ము', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('త', '|'), ('ల', '|'), ('పో', 'U'), ('య', '|'), ('వి', '|'), ('పు', '|'), ('ల', '|'), ('దుః', 'U'), ('ఖ', '|'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('నౌ', 'U'), ('రో', 'U'), ('ష', '|'), ('ము', '|'), ('వి', '|'), ('డి', '|'), ('చి', '|'), ('న', '|'), ('యె', '|'), ('డ', '|'), ('సం', 'U'), ('తో', 'U'), ('షిం', 'U'), ('తు', '|'), ('రు', '|'), ('బు', '|'), ('ధు', '|'), ('లు', '|'), ('హి', '|'), ('త', '|'), ('ము', '|'), ('దో', 'U'), ('ప', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>ధనవంతులైన బహు స
 జ్జనులైనను నీకు మిగుల సమ్మతులై యు
@@ -2391,32 +2214,29 @@
 దున నుండుట తగదు కీర్తి తొలఁగుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('న', '|'), ('వం', 'U'), ('తు', '|'), ('లై', 'U'), ('న', '|'), ('బ', '|'), ('హు', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('లై', 'U'), ('న', '|'), ('ను', '|'), ('నీ', 'U'), ('కు', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('స', 'U'), ('మ్మ', '|'), ('తు', '|'), ('లై', 'U'), ('యు', 'U'), ('న్న', '|'), ('ను', '|'), ('స', '|'), ('తి', '|'), ('జ', '|'), ('న', '|'), ('కు', '|'), ('ని', '|'), ('గృ', '|'), ('హ', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('నుం', 'U'), ('డు', '|'), ('ట', '|'), ('త', '|'), ('గ', '|'), ('దు', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('తొ', '|'), ('ల', '|'), ('గు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>సభలోపల నవ్వినయెడ
 సభకులు నిరసింతు రెట్టి జనుని, న్నెఱి నీ
@@ -2424,32 +2244,29 @@
 బ్రభు కరుణము నమ్మి గర్వ పడకు కుమారా!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('భ', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('న', 'U'), ('వ్వి', '|'), ('న', '|'), ('యె', '|'), ('డ', '|'), ('స', '|'), ('భ', '|'), ('కు', '|'), ('లు', '|'), ('ని', '|'), ('ర', '|'), ('సిం', 'U'), ('తు', '|'), ('రె', 'U'), ('ట్టి', '|'), ('జ', '|'), ('ను', '|'), ('ని', 'U'), ('న్నె', '|'), ('ఱి', '|'), ('నీ', 'U'), ('క', '|'), ('భ', '|'), ('యం', 'U'), ('బొ', '|'), ('సం', 'U'), ('గె', '|'), ('నే', 'U'), ('ని', '|'), ('యు', 'U'), ('బ్ర', '|'), ('భు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('ము', '|'), ('న', 'U'), ('మ్మి', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ప', '|'), ('డ', '|'), ('కు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>తన పంక్తియందు  బాంధవ
 జనము లొక విధంబుగ మెసంగుచు నుండం
@@ -2457,32 +2274,29 @@
 గిన విషభోజనసమంబు క్షితిని గుమారా!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('పం', 'U'), ('క్తి', '|'), ('యం', 'U'), ('దు', '|'), ('బాం', 'U'), ('ధ', '|'), ('వ', '|'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('లొ', '|'), ('క', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('గ', '|'), ('మె', '|'), ('సం', 'U'), ('గు', '|'), ('చు', '|'), ('నుం', 'U'), ('డం', 'U'), ('గ', '|'), ('ను', '|'), ('దా', 'U'), ('స', '|'), ('ద్ర', '|'), ('స', '|'), ('ము', '|'), ('ల', '|'), ('మె', '|'), ('స', '|'), ('గి', '|'), ('న', '|'), ('వి', '|'), ('ష', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('స', '|'), ('మం', 'U'), ('బు', 'U'), ('క్షి', '|'), ('తి', '|'), ('ని', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>పెరవారలుండ ఫలముల
 నరయంగా వారికిడక యాతఁడె మెసవన్‌
@@ -2490,32 +2304,29 @@
 సరియౌనని తలఁపు మానసమునఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('పె', '|'), ('ర', '|'), ('వా', 'U'), ('ర', '|'), ('లుం', 'U'), ('డ', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('న', '|'), ('ర', '|'), ('యం', 'U'), ('గా', 'U'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('డ', '|'), ('క', '|'), ('యా', 'U'), ('త', '|'), ('డె', '|'), ('మె', '|'), ('స', '|'), ('వన్', 'U'), ('స', '|'), ('రి', '|'), ('గా', 'U'), ('దు', '|'), ('వి', '|'), ('స', '|'), ('పు', '|'), ('మే', 'U'), ('త', '|'), ('కు', '|'), ('స', '|'), ('రి', '|'), ('యౌ', 'U'), ('న', '|'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('పు', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('ము', '|'), ('న', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>గుణవంతుని సంగతి ని
 ర్గుణులకు గుణములు ఘటించు, గుసుమాది సమ
@@ -2523,32 +2334,29 @@
 క్షణమునఁ పరిమళము నొందు కరణిఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('గు', '|'), ('ణ', '|'), ('వం', 'U'), ('తు', '|'), ('ని', '|'), ('సం', 'U'), ('గ', '|'), ('తి', '|'), ('ని', 'U'), ('ర్గు', '|'), ('ణు', '|'), ('ల', '|'), ('కు', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('ఘ', '|'), ('టిం', 'U'), ('చు', '|'), ('గు', '|'), ('సు', '|'), ('మా', 'U'), ('ది', '|'), ('స', '|'), ('మ', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('వ', 'U'), ('స్త్రా', 'U'), ('ది', '|'), ('క', '|'), ('మా', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('ప', '|'), ('రి', '|'), ('మ', '|'), ('ళ', '|'), ('ము', '|'), ('నొం', 'U'), ('దు', '|'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>మును స్నానము సేయక చం
 దన మలఁదుట యనుచితం బుదకయుత వస్త్రం
@@ -2556,32 +2364,29 @@
 మనమున నివి తెలిసి మనుము మహిని గుమారా!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ను', 'U'), ('స్నా', 'U'), ('న', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('చం', 'U'), ('ద', '|'), ('న', '|'), ('మ', '|'), ('ల', '|'), ('దు', '|'), ('ట', '|'), ('య', '|'), ('ను', '|'), ('చి', '|'), ('తం', 'U'), ('బు', '|'), ('ద', '|'), ('క', '|'), ('యు', '|'), ('త', '|'), ('వ', 'U'), ('స్త్రం', 'U'), ('బు', '|'), ('ను', '|'), ('వి', '|'), ('ద', '|'), ('లిం', 'U'), ('చు', '|'), ('ట', '|'), ('కూ', 'U'), ('డ', '|'), ('దు', '|'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('ని', '|'), ('వి', '|'), ('తె', '|'), ('లి', '|'), ('సి', '|'), ('మ', '|'), ('ను', '|'), ('ము', '|'), ('మ', '|'), ('హి', '|'), ('ని', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>పరజనులు కట్టి విడిచిన
 వరచేలములైనఁ గట్ట వలదు, వలువన్‌
@@ -2589,32 +2394,29 @@
 ధరియించుట యొప్పదండ్రు ధరను గుమారా!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('క', 'U'), ('ట్టి', '|'), ('వి', '|'), ('డి', '|'), ('చి', '|'), ('న', '|'), ('వ', '|'), ('ర', '|'), ('చే', 'U'), ('ల', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('గ', 'U'), ('ట్ట', '|'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('వ', '|'), ('లు', '|'), ('వన్', 'U'), ('నె', '|'), ('ఱి', '|'), ('మా', 'U'), ('యు', '|'), ('మ', '|'), ('డ', '|'), ('త', '|'), ('మా', 'U'), ('ర్చు', '|'), ('చు', '|'), ('ధ', '|'), ('రి', '|'), ('యిం', 'U'), ('చు', '|'), ('ట', '|'), ('యొ', 'U'), ('ప్ప', '|'), ('దం', 'U'), ('డ్రు', '|'), ('ధ', '|'), ('ర', '|'), ('ను', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>మును మనుజుఁడు జన్మాంతర
 మునఁజేసిన పుణ్యపాపములు పుడమిని వా
@@ -2622,32 +2424,29 @@
 వుని నిందింపకుము కీడు వొడముఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ను', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('డు', '|'), ('జ', 'U'), ('న్మాం', 'U'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('పు', 'U'), ('ణ్య', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('పు', '|'), ('డ', '|'), ('మి', '|'), ('ని', '|'), ('వా', 'U'), ('ని', '|'), ('ని', '|'), ('బొం', 'U'), ('ద', '|'), ('క', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('వు', '|'), ('దే', 'U'), ('వు', '|'), ('ని', '|'), ('నిం', 'U'), ('దిం', 'U'), ('ప', '|'), ('కు', '|'), ('ము', '|'), ('కీ', 'U'), ('డు', '|'), ('వొ', '|'), ('డ', '|'), ('ము', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>అవయవహీనుని సౌంద
 ర్యవిహీను దరిద్రు విద్య రాని యతని సం
@@ -2655,32 +2454,29 @@
 భువి నిందింపఁ దగదండ్రు బుధులు కుమారా!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('వ', '|'), ('య', '|'), ('వ', '|'), ('హీ', 'U'), ('ను', '|'), ('ని', '|'), ('సౌం', 'U'), ('ద', 'U'), ('ర్య', '|'), ('వి', '|'), ('హీ', 'U'), ('ను', '|'), ('ద', '|'), ('రి', '|'), ('ద్రు', '|'), ('వి', 'U'), ('ద్య', '|'), ('రా', 'U'), ('ని', '|'), ('య', '|'), ('త', '|'), ('ని', '|'), ('సం', 'U'), ('స్త', '|'), ('వ', '|'), ('నీ', 'U'), ('యు', '|'), ('దే', 'U'), ('వు', 'U'), ('శ్రు', '|'), ('తు', '|'), ('లన్', 'U'), ('భు', '|'), ('వి', '|'), ('నిం', 'U'), ('దిం', 'U'), ('ప', '|'), ('ద', '|'), ('గ', '|'), ('దం', 'U'), ('డ్రు', '|'), ('బు', '|'), ('ధు', '|'), ('లు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>లోకమున సర్వజనులకు
 నా కాలుఁడు ప్రాణహారి యై యుండఁగ శో
@@ -2688,32 +2484,29 @@
 బ్రాకటముగఁ జేయకుండ రాదు కుమారా!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('లో', 'U'), ('క', '|'), ('ము', '|'), ('న', '|'), ('స', 'U'), ('ర్వ', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('నా', 'U'), ('కా', 'U'), ('లు', '|'), ('డు', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('హా', 'U'), ('రి', '|'), ('యై', 'U'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('శో', 'U'), ('భా', 'U'), ('కృ', '|'), ('త', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('ల', '|'), ('వ', '|'), ('డిం', 'U'), ('బ్రా', 'U'), ('క', '|'), ('ట', '|'), ('ము', '|'), ('గ', '|'), ('జే', 'U'), ('య', '|'), ('కుం', 'U'), ('డ', '|'), ('రా', 'U'), ('దు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>అల సరస్నానంబులఁ బరి
 మళముం గలుగు వస్తువులను మహితల యానం
@@ -2721,32 +2514,29 @@
 కలుగుం జనుఁ గాలవశము గాను గుమారా!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ల', '|'), ('స', '|'), ('ర', 'U'), ('స్నా', 'U'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('బ', '|'), ('రి', '|'), ('మ', '|'), ('ళ', '|'), ('ముం', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('వ', 'U'), ('స్తు', '|'), ('వు', '|'), ('ల', '|'), ('ను', '|'), ('మ', '|'), ('హి', '|'), ('త', '|'), ('ల', '|'), ('యా', 'U'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('నా', 'U'), ('స', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('ను', 'U'), ('బ్బ', '|'), ('కు', '|'), ('క', '|'), ('లు', '|'), ('గుం', 'U'), ('జ', '|'), ('ను', '|'), ('గా', 'U'), ('ల', '|'), ('వ', '|'), ('శ', '|'), ('ము', '|'), ('గా', 'U'), ('ను', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>ప్రజ్ఞావంతుని చేతను
 బ్రజ్ఞాహీనునకుఁ గడమ వాటిల్లు నిలన్‌
@@ -2754,32 +2544,29 @@
 దజ్ఞులు నుతియింతు రదియె ధనము కుమారా!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('ప్ర', 'U'), ('జ్ఞా', 'U'), ('వం', 'U'), ('తు', '|'), ('ని', '|'), ('చే', 'U'), ('త', '|'), ('ను', 'U'), ('బ్ర', 'U'), ('జ్ఞా', 'U'), ('హీ', 'U'), ('ను', '|'), ('న', '|'), ('కు', '|'), ('గ', '|'), ('డ', '|'), ('మ', '|'), ('వా', 'U'), ('టి', 'U'), ('ల్లు', '|'), ('ని', '|'), ('లన్', 'U'), ('బ్రా', 'U'), ('జ్ఞ', '|'), ('త', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('టిం', 'U'), ('చి', '|'), ('న', '|'), ('ద', 'U'), ('జ్ఞు', '|'), ('లు', '|'), ('ను', '|'), ('తి', '|'), ('యిం', 'U'), ('తు', '|'), ('ర', '|'), ('ది', '|'), ('యె', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>మనుజుల తమసౌఖ్యము కొఱ
 కును సంరక్షణము నవనిఁ గోరుదు, రొగి నే
@@ -2787,32 +2574,29 @@
 పను దగియును బ్రోవఁ డతఁడె పాపి కుమారా!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ను', '|'), ('జు', '|'), ('ల', '|'), ('త', '|'), ('మ', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('కొ', '|'), ('ఱ', '|'), ('కు', '|'), ('ను', '|'), ('సం', 'U'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('న', '|'), ('వ', '|'), ('ని', '|'), ('గో', 'U'), ('రు', '|'), ('దు', '|'), ('రొ', '|'), ('గి', '|'), ('నే', 'U'), ('జ', '|'), ('న', '|'), ('పా', 'U'), ('లు', '|'), ('డు', '|'), ('సం', 'U'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('ను', '|'), ('ద', '|'), ('గి', '|'), ('యు', '|'), ('ను', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('డ', '|'), ('త', '|'), ('డె', '|'), ('పా', 'U'), ('పి', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>మండలపతి దండార్హుల
 దండింపక యుండరాదు ధారుణి నతఁడా
@@ -2820,32 +2604,29 @@
 మెండగు పాపంబునొంది మెలఁగుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('మం', 'U'), ('డ', '|'), ('ల', '|'), ('ప', '|'), ('తి', '|'), ('దం', 'U'), ('డా', 'U'), ('ర్హు', '|'), ('ల', '|'), ('దం', 'U'), ('డిం', 'U'), ('ప', '|'), ('క', '|'), ('యుం', 'U'), ('డ', '|'), ('రా', 'U'), ('దు', '|'), ('ధా', 'U'), ('రు', '|'), ('ణి', '|'), ('న', '|'), ('త', '|'), ('డా', 'U'), ('ఖం', 'U'), ('డ', '|'), ('ల', '|'), ('స', '|'), ('మా', 'U'), ('ను', '|'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('మెం', 'U'), ('డ', '|'), ('గు', '|'), ('పా', 'U'), ('పం', 'U'), ('బు', '|'), ('నొం', 'U'), ('ది', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>గరళముఁ బెట్టెడు వాని
 న్బరుఁ జంపఁదలంచు వానిఁ జనులెల్ల బయ
@@ -2853,32 +2634,29 @@
 హరుని నృపతిం జంపి పుణ్యుఁ డగును గుమారా!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('ర', '|'), ('ళ', '|'), ('ము', '|'), ('బె', 'U'), ('ట్టె', '|'), ('డు', '|'), ('వా', 'U'), ('ని', 'U'), ('న్బ', '|'), ('రు', '|'), ('జం', 'U'), ('ప', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('వా', 'U'), ('ని', '|'), ('జ', '|'), ('ను', '|'), ('లె', 'U'), ('ల్ల', '|'), ('బ', '|'), ('య', 'U'), ('ల్ప', '|'), ('ఱ', '|'), ('చె', '|'), ('డి', '|'), ('వా', 'U'), ('నిం', 'U'), ('జ', '|'), ('న', '|'), ('ధ', '|'), ('న', '|'), ('హ', '|'), ('రు', '|'), ('ని', '|'), ('నృ', '|'), ('ప', '|'), ('తిం', 'U'), ('జం', 'U'), ('పి', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('డ', '|'), ('గు', '|'), ('ను', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>గృహదాహకునిం బరదా
 రహరుం బంధుహితకార్య రహితుని దుష్టో
@@ -2886,32 +2664,29 @@
 యిహపరములయందు గీర్తి నెనయుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('గృ', '|'), ('హ', '|'), ('దా', 'U'), ('హ', '|'), ('కు', '|'), ('నిం', 'U'), ('బ', '|'), ('ర', '|'), ('దా', 'U'), ('ర', '|'), ('హ', '|'), ('రుం', 'U'), ('బం', 'U'), ('ధు', '|'), ('హి', '|'), ('త', '|'), ('కా', 'U'), ('ర్య', '|'), ('ర', '|'), ('హి', '|'), ('తు', '|'), ('ని', '|'), ('దు', 'U'), ('ష్టో', 'U'), ('త్స', '|'), ('హ', '|'), ('ప', '|'), ('రు', '|'), ('ని', '|'), ('జం', 'U'), ('పి', '|'), ('న', '|'), ('ర', '|'), ('ప', '|'), ('తి', '|'), ('యి', '|'), ('హ', '|'), ('ప', '|'), ('ర', '|'), ('ము', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('నె', '|'), ('న', '|'), ('యు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>సత్తువగల యాతని పై
 నెత్తిన దుర్బలుఁడు తస్కరించిన నతండున్‌
@@ -2919,32 +2694,29 @@
 జిత్తజ పీడితుఁడు జింతఁ జెందుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('త్తు', '|'), ('వ', '|'), ('గ', '|'), ('ల', '|'), ('యా', 'U'), ('త', '|'), ('ని', '|'), ('పై', 'U'), ('నె', 'U'), ('త్తి', '|'), ('న', '|'), ('దు', 'U'), ('ర్బ', '|'), ('లు', '|'), ('డు', '|'), ('త', 'U'), ('స్క', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('న', '|'), ('తం', 'U'), ('డున్', 'U'), ('వి', 'U'), ('త్త', '|'), ('ము', '|'), ('గో', 'U'), ('ల్ప', '|'), ('డు', '|'), ('న', '|'), ('త', '|'), ('డు', '|'), ('ను', '|'), ('జి', 'U'), ('త్త', '|'), ('జ', '|'), ('పీ', 'U'), ('డి', '|'), ('తు', '|'), ('డు', '|'), ('జిం', 'U'), ('త', '|'), ('జెం', 'U'), ('దు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>కత్తిని చేతంబట్టుచు
 మొత్తఁదలఁచి వచ్చువాని ముఖ్యముగా మే
@@ -2952,32 +2724,29 @@
 శ్చిత్త మతనిఁ జంపఁదగదు చిన్ని కుమారా!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('త్తి', '|'), ('ని', '|'), ('చే', 'U'), ('తం', 'U'), ('బ', 'U'), ('ట్టు', '|'), ('చు', '|'), ('మొ', 'U'), ('త్త', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('వా', 'U'), ('ని', '|'), ('ము', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('గా', 'U'), ('మే', 'U'), ('ల్హ', 'U'), ('త్తిం', 'U'), ('చి', '|'), ('న', '|'), ('న', '|'), ('దె', 'U'), ('ప్రా', 'U'), ('య', 'U'), ('శ్చి', 'U'), ('త్త', '|'), ('మ', '|'), ('త', '|'), ('ని', '|'), ('జం', 'U'), ('ప', '|'), ('ద', '|'), ('గ', '|'), ('దు', '|'), ('చి', 'U'), ('న్ని', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>ఓరిమియె కలిగియుండిన
 వారలఁ గని ప్రజ్ఞలేని వా రనియెద, రౌ
@@ -2985,32 +2754,29 @@
 నోరిమియే భూషణంబు రోరి కుమారా!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('ఓ', 'U'), ('రి', '|'), ('మి', '|'), ('యె', '|'), ('క', '|'), ('లి', '|'), ('గి', '|'), ('యుం', 'U'), ('డి', '|'), ('న', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('గ', '|'), ('ని', 'U'), ('ప్ర', 'U'), ('జ్ఞ', '|'), ('లే', 'U'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('ని', '|'), ('యె', '|'), ('ద', '|'), ('రౌ', 'U'), ('నా', 'U'), ('ర', '|'), ('య', '|'), ('స', 'U'), ('త్పు', '|'), ('రు', '|'), ('షా', 'U'), ('ళి', '|'), ('కి', '|'), ('నో', 'U'), ('రి', '|'), ('మి', '|'), ('యే', 'U'), ('భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బు', '|'), ('రో', 'U'), ('రి', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>పురుషుం డొనర్పని పనికి
 నరయఁగ దైవం బదెట్టు లనుకూలించున్‌
@@ -3018,32 +2784,29 @@
 వరిపండునె ధరణిలోన వఱలి కుమారా!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('రు', '|'), ('షుం', 'U'), ('డొ', '|'), ('న', 'U'), ('ర్ప', '|'), ('ని', '|'), ('ప', '|'), ('ని', '|'), ('కి', '|'), ('న', '|'), ('ర', '|'), ('య', '|'), ('గ', '|'), ('దై', 'U'), ('వం', 'U'), ('బ', '|'), ('దె', 'U'), ('ట్టు', '|'), ('ల', '|'), ('ను', '|'), ('కూ', 'U'), ('లిం', 'U'), ('చున్', 'U'), ('స', '|'), ('ర', '|'), ('ణి', '|'), ('గ', '|'), ('వి', 'U'), ('త్త', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('ను', '|'), ('వ', '|'), ('రి', '|'), ('పం', 'U'), ('డు', '|'), ('నె', '|'), ('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('లో', 'U'), ('న', '|'), ('వ', '|'), ('ఱ', '|'), ('లి', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>తన సత్కర్మాచరణం
 బున భాగ్యము వేగ వృద్ధి బొందు, జగత్ప్రా
@@ -3051,32 +2814,29 @@
 ననలం బెంతైనఁ బెరఁగు నయ్య కుమారా!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('స', 'U'), ('త్క', '|'), ('ర్మా', 'U'), ('చ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('వే', 'U'), ('గ', '|'), ('వృ', 'U'), ('ద్ధి', '|'), ('బొం', 'U'), ('దు', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప్రా', 'U'), ('ణు', '|'), ('ని', '|'), ('వ', '|'), ('ర', '|'), ('సా', 'U'), ('హా', 'U'), ('య్య', '|'), ('ము', '|'), ('చే', 'U'), ('న', '|'), ('న', '|'), ('లం', 'U'), ('బెం', 'U'), ('తై', 'U'), ('న', '|'), ('బె', '|'), ('ర', '|'), ('గు', '|'), ('న', 'U'), ('య్య', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>చమురింకిపోయినను దీ
 పము శమియించిన విధంబు పౌరుషము విహీ
@@ -3084,32 +2844,29 @@
 లము గాకుండినను భూతలమునఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('ము', '|'), ('రిం', 'U'), ('కి', '|'), ('పో', 'U'), ('యి', '|'), ('న', '|'), ('ను', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('శ', '|'), ('మి', '|'), ('యిం', 'U'), ('చి', '|'), ('న', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('పౌ', 'U'), ('రు', '|'), ('ష', '|'), ('ము', '|'), ('వి', '|'), ('హీ', 'U'), ('న', '|'), ('మె', '|'), ('య', '|'), ('గు', '|'), ('ను', '|'), ('దై', 'U'), ('వ', '|'), ('మ', '|'), ('ను', '|'), ('కూ', 'U'), ('ల', '|'), ('ము', '|'), ('గా', 'U'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('భూ', 'U'), ('త', '|'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>ఘన బీజము సాయము లే
 కను భూములు నిష్ప్రయోజకంబైన విధం
@@ -3117,32 +2874,29 @@
 కనె పౌరుష కర్మఫలము గలదె కుమారా?</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('న', '|'), ('బీ', 'U'), ('జ', '|'), ('ము', '|'), ('సా', 'U'), ('య', '|'), ('ము', '|'), ('లే', 'U'), ('క', '|'), ('ను', '|'), ('భూ', 'U'), ('ము', '|'), ('లు', '|'), ('ని', 'U'), ('ష్ప్ర', '|'), ('యో', 'U'), ('జ', '|'), ('కం', 'U'), ('బై', 'U'), ('న', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('తో', 'U'), ('డి', '|'), ('ల', '|'), ('గా', 'U'), ('క', '|'), ('నె', '|'), ('పౌ', 'U'), ('రు', '|'), ('ష', '|'), ('క', '|'), ('ర్మ', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('గ', '|'), ('ల', '|'), ('దె', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>ధరనే వస్తువులైనన్‌
 దరుగుటకై వృద్ధినొందుఁ దగఁ బొడ వెదుగున్‌
@@ -3150,32 +2904,29 @@
 దరిఁ జేరును, వీని మదిని దలఁపు కుమార!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('నే', 'U'), ('వ', 'U'), ('స్తు', '|'), ('వు', '|'), ('లై', 'U'), ('నన్', 'U'), ('ద', '|'), ('రు', '|'), ('గు', '|'), ('ట', '|'), ('కై', 'U'), ('వృ', 'U'), ('ద్ధి', '|'), ('నొం', 'U'), ('దు', '|'), ('ద', '|'), ('గ', '|'), ('బొ', '|'), ('డ', '|'), ('వె', '|'), ('దు', '|'), ('గున్', 'U'), ('వి', '|'), ('రు', '|'), ('గు', '|'), ('ట', '|'), ('కై', 'U'), ('పా', 'U'), ('యు', '|'), ('ట', '|'), ('కై', 'U'), ('ద', '|'), ('రి', '|'), ('జే', 'U'), ('రు', '|'), ('ను', '|'), ('వీ', 'U'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('ని', '|'), ('ద', '|'), ('ల', '|'), ('పు', '|'), ('కు', '|'), ('మా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>జనియించుట పొలియుటకే
 పెను సుఖమొందు టది కష్ట విధి నొందుటకే
@@ -3183,32 +2934,29 @@
 యని మనమున నమ్మవలయు నయ్య! కుమారా!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ని', '|'), ('యిం', 'U'), ('చు', '|'), ('ట', '|'), ('పొ', '|'), ('లి', '|'), ('యు', '|'), ('ట', '|'), ('కే', 'U'), ('పె', '|'), ('ను', '|'), ('సు', '|'), ('ఖ', '|'), ('మొం', 'U'), ('దు', '|'), ('ట', '|'), ('ది', '|'), ('క', 'U'), ('ష్ట', '|'), ('వి', '|'), ('ధి', '|'), ('నొం', 'U'), ('దు', '|'), ('ట', '|'), ('కే', 'U'), ('వి', '|'), ('ను', '|'), ('హె', 'U'), ('చ్చు', '|'), ('ట', '|'), ('త', 'U'), ('గ్గు', '|'), ('ట', '|'), ('కే', 'U'), ('య', '|'), ('ని', '|'), ('మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('న', 'U'), ('మ్మ', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('న', 'U'), ('య్య', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>ఎటువంటి వరకులంబునఁ
 బటుతరముగఁ బుట్టెనేని పరఁగఁగ మును గ
@@ -3216,32 +2964,29 @@
 గటగట! భోగింపవలయుఁ గాదె? కుమారా!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('ఎ', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('వ', '|'), ('ర', '|'), ('కు', '|'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('బ', '|'), ('టు', '|'), ('త', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('బు', 'U'), ('ట్టె', '|'), ('నే', 'U'), ('ని', '|'), ('ప', '|'), ('ర', '|'), ('గ', '|'), ('గ', '|'), ('ము', '|'), ('ను', '|'), ('గ', 'U'), ('న్న', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('క', '|'), ('ర్మ', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('గ', '|'), ('ట', '|'), ('గ', '|'), ('ట', '|'), ('భో', 'U'), ('గిం', 'U'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('గా', 'U'), ('దె', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>పెక్కుజనులు నిద్రింపఁగ
 నొక్కండయ్యెడను నిద్ర నొందకయున్నన్‌
@@ -3249,32 +2994,29 @@
 నక్కర్మమునందుఁ జొరకు మయ్య! కుమారా!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('పె', 'U'), ('క్కు', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('ని', '|'), ('ద్రిం', 'U'), ('ప', '|'), ('గ', '|'), ('నొ', 'U'), ('క్కం', 'U'), ('డ', 'U'), ('య్యె', '|'), ('డ', '|'), ('ను', '|'), ('ని', '|'), ('ద్ర', '|'), ('నొం', 'U'), ('ద', '|'), ('క', '|'), ('యు', '|'), ('న్నన్', 'U'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('ను', '|'), ('ప', '|'), ('ద్ర', '|'), ('వం', 'U'), ('బ', '|'), ('గు', '|'), ('న', 'U'), ('క్క', '|'), ('ర్మ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('జొ', '|'), ('ర', '|'), ('కు', '|'), ('మ', 'U'), ('య్య', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>మధురంబులఁ గొననొల్లఁడు
 బుధజనుఁ డేకతమ దారిఁ బోనొల్లఁడు నీ
@@ -3282,32 +3024,29 @@
 రథ సిద్ధుఁడవగుచు మెలఁగ రాదె! కుమారా!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ధు', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('గొ', '|'), ('న', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('డు', '|'), ('బు', '|'), ('ధ', '|'), ('జ', '|'), ('ను', '|'), ('డే', 'U'), ('క', '|'), ('త', '|'), ('మ', '|'), ('దా', 'U'), ('రి', '|'), ('బో', 'U'), ('నొ', 'U'), ('ల్ల', '|'), ('డు', '|'), ('నీ', 'U'), ('వి', '|'), ('ధ', '|'), ('మె', '|'), ('ఱి', '|'), ('గి', '|'), ('నీ', 'U'), ('వు', '|'), ('ను', '|'), ('మ', '|'), ('నో', 'U'), ('ర', '|'), ('థ', '|'), ('సి', 'U'), ('ద్ధు', '|'), ('డ', '|'), ('వ', '|'), ('గు', '|'), ('చు', '|'), ('మె', '|'), ('ల', '|'), ('గ', '|'), ('రా', 'U'), ('దె', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>ధనవంతుఁడె కులవంతుఁడు
 ధనవంతుఁడె సుందరుండు, ధనవంతుండే
@@ -3315,32 +3054,29 @@
 ధనవంతుఁడె ధీరుఁడనుచుఁ దలఁపు కుమారా!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('న', '|'), ('వం', 'U'), ('తు', '|'), ('డె', '|'), ('కు', '|'), ('ల', '|'), ('వం', 'U'), ('తు', '|'), ('డు', '|'), ('ధ', '|'), ('న', '|'), ('వం', 'U'), ('తు', '|'), ('డె', '|'), ('సుం', 'U'), ('ద', '|'), ('రుం', 'U'), ('డు', '|'), ('ధ', '|'), ('న', '|'), ('వం', 'U'), ('తుం', 'U'), ('డే', 'U'), ('ఘ', '|'), ('న', '|'), ('వం', 'U'), ('తు', '|'), ('డు', '|'), ('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తు', '|'), ('డు', '|'), ('ధ', '|'), ('న', '|'), ('వం', 'U'), ('తు', '|'), ('డె', '|'), ('ధీ', 'U'), ('రు', '|'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('ద', '|'), ('ల', '|'), ('పు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>విను ప్రాణరక్షణమునన్‌
 ధనమంతయు మునిగిఁపోవు తఱిఁ బరిణయమం
@@ -3348,32 +3084,29 @@
 జన సంఘములందు బొంకఁ జనును గుమారా!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ను', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('నన్', 'U'), ('ధ', '|'), ('న', '|'), ('మం', 'U'), ('త', '|'), ('యు', '|'), ('ము', '|'), ('ని', '|'), ('గి', '|'), ('పో', 'U'), ('వు', '|'), ('త', '|'), ('ఱి', '|'), ('బ', '|'), ('రి', '|'), ('ణ', '|'), ('య', '|'), ('మం', 'U'), ('దు', '|'), ('న', '|'), ('గు', '|'), ('రు', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('న', '|'), ('వ', '|'), ('ధూ', 'U'), ('జ', '|'), ('న', '|'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('బొం', 'U'), ('క', '|'), ('జ', '|'), ('ను', '|'), ('ను', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>కులభామల విడువకు, వెలి
 పొలఁతుల వీక్షించి మోహమునఁ బొరలకుమీ
@@ -3381,32 +3114,29 @@
 గులహీనుఁడు పుట్టెననుట కొఱలుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('ల', '|'), ('భా', 'U'), ('మ', '|'), ('ల', '|'), ('వి', '|'), ('డు', '|'), ('వ', '|'), ('కు', '|'), ('వె', '|'), ('లి', '|'), ('పొ', '|'), ('ల', '|'), ('తు', '|'), ('ల', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('మో', 'U'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('బొ', '|'), ('ర', '|'), ('ల', '|'), ('కు', '|'), ('మీ', 'U'), ('ఖ', '|'), ('లు', '|'), ('డం', 'U'), ('దు', '|'), ('రె', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('ర', '|'), ('లు', '|'), ('గు', '|'), ('ల', '|'), ('హీ', 'U'), ('ను', '|'), ('డు', '|'), ('పు', 'U'), ('ట్టె', '|'), ('న', '|'), ('ను', '|'), ('ట', '|'), ('కొ', '|'), ('ఱ', '|'), ('లు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>చపలాత్ముఁ డవనిలోపల
 నపాత్ర జనులకును దాన మందిచ్చుట హి
@@ -3414,32 +3144,29 @@
 నిపుణత నెయిపోసినట్లు నెగడుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('ప', '|'), ('లా', 'U'), ('త్ము', '|'), ('డ', '|'), ('వ', '|'), ('ని', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('న', '|'), ('పా', 'U'), ('త్ర', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('దా', 'U'), ('న', '|'), ('మం', 'U'), ('ది', 'U'), ('చ్చు', '|'), ('ట', '|'), ('హి', '|'), ('న', '|'), ('పు', '|'), ('గు', 'U'), ('క్క', '|'), ('నో', 'U'), ('టి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ని', '|'), ('పు', '|'), ('ణ', '|'), ('త', '|'), ('నె', '|'), ('యి', '|'), ('పో', 'U'), ('సి', '|'), ('న', 'U'), ('ట్లు', '|'), ('నె', '|'), ('గ', '|'), ('డు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>యోగ్యుల నరయఁగ లేక య
 యోగ్యులకున్‌ దాన మొసఁగు చుండుట యది స
@@ -3447,32 +3174,29 @@
 భాగ్యముఁగని పెండ్లిచేయు పగిదిఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('యో', 'U'), ('గ్యు', '|'), ('ల', '|'), ('న', '|'), ('ర', '|'), ('య', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('య', '|'), ('యో', 'U'), ('గ్యు', '|'), ('ల', '|'), ('కున్', 'U'), ('దా', 'U'), ('న', '|'), ('మొ', '|'), ('స', '|'), ('గు', '|'), ('చుం', 'U'), ('డు', '|'), ('ట', '|'), ('య', '|'), ('ది', '|'), ('స', 'U'), ('ద్భో', 'U'), ('గ్య', '|'), ('స', '|'), ('తిన్', 'U'), ('షం', 'U'), ('డు', '|'), ('న', '|'), ('కున్', 'U'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('గ', '|'), ('ని', '|'), ('పెం', 'U'), ('డ్లి', '|'), ('చే', 'U'), ('యు', '|'), ('ప', '|'), ('గి', '|'), ('ది', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>దీనుం డైనను శాత్రవుఁ
 డైనన్‌ శరణనుచు వేఁడు నపుడు ప్రియత న
@@ -3480,32 +3204,29 @@
 వాని సుజనుఁడండ్రు బుధులు వసుధఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('దీ', 'U'), ('నుం', 'U'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('శా', 'U'), ('త్ర', '|'), ('వు', '|'), ('డై', 'U'), ('నన్', 'U'), ('శ', '|'), ('ర', '|'), ('ణ', '|'), ('ను', '|'), ('చు', '|'), ('వే', 'U'), ('డు', '|'), ('న', '|'), ('పు', '|'), ('డు', 'U'), ('ప్రి', '|'), ('య', '|'), ('త', '|'), ('న', 'U'), ('మ్మా', 'U'), ('న', '|'), ('వు', '|'), ('ని', '|'), ('కో', 'U'), ('ర్కె', '|'), ('దీ', 'U'), ('ర్చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('సు', '|'), ('జ', '|'), ('ను', '|'), ('డం', 'U'), ('డ్రు', '|'), ('బు', '|'), ('ధు', '|'), ('లు', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>పాపంబులందు నెక్కుడు
 పాపములు సుమీ! ధరిత్రి పై క్రోధగుణం
@@ -3513,32 +3234,29 @@
 యేపురుషులఁ జెందఁగూడ దిలను గుమారా!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('పం', 'U'), ('బు', '|'), ('లం', 'U'), ('దు', '|'), ('నె', 'U'), ('క్కు', '|'), ('డు', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('సు', '|'), ('మీ', 'U'), ('ధ', '|'), ('రి', 'U'), ('త్రి', '|'), ('పై', 'U'), ('క్రో', 'U'), ('ధ', '|'), ('గు', '|'), ('ణం', 'U'), ('బే', 'U'), ('పా', 'U'), ('రు', '|'), ('లో', 'U'), ('భ', '|'), ('ము', '|'), ('ను', '|'), ('ని', '|'), ('వి', '|'), ('యే', 'U'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('ల', '|'), ('జెం', 'U'), ('ద', '|'), ('గూ', 'U'), ('డ', '|'), ('ది', '|'), ('ల', '|'), ('ను', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>మునుగల్గి ధర్మమును జే
 యునతఁడు పేదవడెనేని యున్నంతకుఁ దోఁ
@@ -3546,32 +3264,29 @@
 చ్చునతఁడె బహుపుణ్యపూరుషుండు కుమార!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ను', '|'), ('గ', 'U'), ('ల్గి', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('ను', '|'), ('జే', 'U'), ('యు', '|'), ('న', '|'), ('త', '|'), ('డు', '|'), ('పే', 'U'), ('ద', '|'), ('వ', '|'), ('డె', '|'), ('నే', 'U'), ('ని', '|'), ('యు', 'U'), ('న్నం', 'U'), ('త', '|'), ('కు', '|'), ('దో', 'U'), ('చి', '|'), ('న', '|'), ('భం', 'U'), ('గి', '|'), ('న', 'U'), ('ర్థు', '|'), ('ల', '|'), ('కు', '|'), ('ని', 'U'), ('చ్చు', '|'), ('న', '|'), ('త', '|'), ('డె', '|'), ('బ', '|'), ('హు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('పూ', 'U'), ('రు', '|'), ('షుం', 'U'), ('డు', '|'), ('కు', '|'), ('మా', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>కడుమెల్లన నిడు నుత్తర
 మడఁచును గోపమును దీక్ష్ణమమరఁగ దా న
@@ -3579,32 +3294,29 @@
 వడిఁ గోపముఁ బెంచు నరయ వసుధఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డు', '|'), ('మె', 'U'), ('ల్ల', '|'), ('న', '|'), ('ని', '|'), ('డు', '|'), ('ను', 'U'), ('త్త', '|'), ('ర', '|'), ('మ', '|'), ('డ', '|'), ('చు', '|'), ('ను', '|'), ('గో', 'U'), ('ప', '|'), ('ము', '|'), ('ను', '|'), ('దీ', 'U'), ('క్ష్ణ', '|'), ('మ', '|'), ('మ', '|'), ('ర', '|'), ('గ', '|'), ('దా', 'U'), ('న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('ను', '|'), ('డి', '|'), ('వె', '|'), ('డు', '|'), ('ను', 'U'), ('త్త', '|'), ('ర', '|'), ('ము', '|'), ('డి', '|'), ('వ', '|'), ('డి', '|'), ('గో', 'U'), ('ప', '|'), ('ము', '|'), ('బెం', 'U'), ('చు', '|'), ('న', '|'), ('ర', '|'), ('య', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>మిత్రుండు దనకు విశ్వా
 మిత్రముఁ జేసినను గాని మే లనవచ్చున్‌,
@@ -3612,32 +3324,29 @@
 ధాత్రిం దన కదియె కీడు తలపఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('మి', 'U'), ('త్రుం', 'U'), ('డు', '|'), ('ద', '|'), ('న', '|'), ('కు', '|'), ('వి', 'U'), ('శ్వా', 'U'), ('మి', 'U'), ('త్ర', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('మే', 'U'), ('ల', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', 'U'), ('న్శా', 'U'), ('త్ర', '|'), ('వు', '|'), ('డు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('గొ', 'U'), ('న్న', '|'), ('ను', '|'), ('ధా', 'U'), ('త్రిం', 'U'), ('ద', '|'), ('న', '|'), ('క', '|'), ('ది', '|'), ('యె', '|'), ('కీ', 'U'), ('డు', '|'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>ధర నొక్క బుద్ధిహీనునిఁ
 దిరముగ రోటనిడి దంచెఁ దేనియుఁ బెలుచం
@@ -3645,32 +3354,29 @@
 సరసత్వము గలుగదండ్రు సతము కుమారా!</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('నొ', 'U'), ('క్క', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('హీ', 'U'), ('ను', '|'), ('ని', '|'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('రో', 'U'), ('ట', '|'), ('ని', '|'), ('డి', '|'), ('దం', 'U'), ('చె', '|'), ('దే', 'U'), ('ని', '|'), ('యు', '|'), ('బె', '|'), ('లు', '|'), ('చం', 'U'), ('దు', '|'), ('రు', '|'), ('మ', '|'), ('గు', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('య', '|'), ('త', '|'), ('ని', '|'), ('కి', '|'), ('స', '|'), ('ర', '|'), ('స', 'U'), ('త్వ', '|'), ('ము', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('దం', 'U'), ('డ్రు', '|'), ('స', '|'), ('త', '|'), ('ము', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>విత్తంబు విద్య కుల ము
 న్మత్తులకు మదం బొసంగు మాన్యులకున్‌ స
@@ -3678,32 +3384,29 @@
 జిత్తంబున నిడి మెలగఁ జెలఁగు కుమారా!</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('వి', 'U'), ('ద్య', '|'), ('కు', '|'), ('ల', '|'), ('ము', 'U'), ('న్మ', 'U'), ('త్తు', '|'), ('ల', '|'), ('కు', '|'), ('మ', '|'), ('దం', 'U'), ('బొ', '|'), ('సం', 'U'), ('గు', '|'), ('మా', 'U'), ('న్యు', '|'), ('ల', '|'), ('కున్', 'U'), ('స', 'U'), ('ద్వృ', 'U'), ('త్తి', '|'), ('నొ', '|'), ('సం', 'U'), ('గు', 'U'), ('న్వీ', 'U'), ('నిం', 'U'), ('జి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('న', '|'), ('ని', '|'), ('డి', '|'), ('మె', '|'), ('ల', '|'), ('గ', '|'), ('జె', '|'), ('ల', '|'), ('గు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>ధరఁ గఱవుఁ గోరి ధాన్యం
 బిరవున నిడుకొనినవాని నెగ్గింపఁ దలం
@@ -3711,32 +3414,29 @@
 పురుషుని నుత్తముఁడటంచుఁ బొగిడి కుమారా!</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('గ', '|'), ('ఱ', '|'), ('వు', '|'), ('గో', 'U'), ('రి', '|'), ('ధా', 'U'), ('న్యం', 'U'), ('బి', '|'), ('ర', '|'), ('వు', '|'), ('న', '|'), ('ని', '|'), ('డు', '|'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('నె', 'U'), ('గ్గిం', 'U'), ('ప', '|'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('రు', '|'), ('వా', 'U'), ('ని', '|'), ('న', 'U'), ('మ్మ', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('పు', '|'), ('రు', '|'), ('షు', '|'), ('ని', '|'), ('ను', 'U'), ('త్త', '|'), ('ము', '|'), ('డ', '|'), ('టం', 'U'), ('చు', '|'), ('బొ', '|'), ('గి', '|'), ('డి', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>ఋణ మధిక మొనర్చి సమ
 ర్పణ జేసిన తండ్రి, విద్య రాని కొడుకు, ల
@@ -3744,32 +3444,29 @@
 రిణి యగు జననియును దలప రిపులు కుమారా!</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('ఋ', '|'), ('ణ', '|'), ('మ', '|'), ('ధి', '|'), ('క', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('స', '|'), ('మ', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వి', 'U'), ('ద్య', '|'), ('రా', 'U'), ('ని', '|'), ('కొ', '|'), ('డు', '|'), ('కు', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('శా', 'U'), ('లి', '|'), ('రా', 'U'), ('ణి', '|'), ('దు', 'U'), ('శ్చా', 'U'), ('రి', '|'), ('ణి', '|'), ('య', '|'), ('గు', '|'), ('జ', '|'), ('న', '|'), ('ని', '|'), ('యు', '|'), ('ను', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('రి', '|'), ('పు', '|'), ('లు', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>మర్మము పరులకుఁ దెలుపకుఁ
 దుర్మార్గున చెంత నెపుడు దూరకు, మిల దు
@@ -3777,32 +3474,29 @@
 నిర్మలమతి నుంట లెస్స నిజము కుమారా!</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ర్మ', '|'), ('ము', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('దె', '|'), ('లు', '|'), ('ప', '|'), ('కు', '|'), ('దు', '|'), ('ర్మా', 'U'), ('ర్గు', '|'), ('న', '|'), ('చెం', 'U'), ('త', '|'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('దూ', 'U'), ('ర', '|'), ('కు', '|'), ('మి', '|'), ('ల', '|'), ('దు', 'U'), ('ష్క', '|'), ('ర్మ', '|'), ('ము', '|'), ('ల', '|'), ('జే', 'U'), ('య', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('కు', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', '|'), ('మ', '|'), ('తి', '|'), ('నుం', 'U'), ('ట', '|'), ('లె', 'U'), ('స్స', '|'), ('ని', '|'), ('జ', '|'), ('ము', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
         <is>
           <t>సారమతి నిటుల తిరిగెడి
 పూరుషరత్నంబు కీర్తిఁ బొందుచు ధరపై
@@ -3810,32 +3504,29 @@
 మీఱ ననుభవించుచుండు మిగులఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('సా', 'U'), ('ర', '|'), ('మ', '|'), ('తి', '|'), ('ని', '|'), ('టు', '|'), ('ల', '|'), ('తి', '|'), ('రి', '|'), ('గె', '|'), ('డి', '|'), ('పూ', 'U'), ('రు', '|'), ('ష', '|'), ('ర', 'U'), ('త్నం', 'U'), ('బు', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('బొం', 'U'), ('దు', '|'), ('చు', '|'), ('ధ', '|'), ('ర', '|'), ('పై', 'U'), ('గో', 'U'), ('రి', '|'), ('న', '|'), ('కో', 'U'), ('ర్కె', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', 'U'), ('శ్రీ', 'U'), ('మీ', 'U'), ('ఱ', '|'), ('న', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('చు', '|'), ('చుం', 'U'), ('డు', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>ఇల ఫక్కికులోద్భవుఁడ
 ప్పల నరసింహాఖ్యుఁ డిట్టి పద్ధతులు ధరం
@@ -3843,32 +3534,29 @@
 బులు కలుగఁగ వెలయఁజెప్పె బుద్ధి కుమారా!</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ల', '|'), ('ఫ', 'U'), ('క్కి', '|'), ('కు', '|'), ('లో', 'U'), ('ద్భ', '|'), ('వు', '|'), ('డ', 'U'), ('ప్ప', '|'), ('ల', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హా', 'U'), ('ఖ్యు', '|'), ('డి', 'U'), ('ట్టి', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తు', '|'), ('లు', '|'), ('ధ', '|'), ('రం', 'U'), ('గ', '|'), ('ల', '|'), ('బా', 'U'), ('లు', '|'), ('ర', '|'), ('కె', 'U'), ('ల్ల', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('లు', '|'), ('క', '|'), ('లు', '|'), ('గ', '|'), ('గ', '|'), ('వె', '|'), ('ల', '|'), ('య', '|'), ('జె', 'U'), ('ప్పె', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('కు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>kandamu</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
-        <is>
-          <t>kandamu</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
         <is>
           <t>పదునెనిమిదివందల యఱు
 వది యగు క్రీస్తుశకమందు వరరౌద్రిని మే
@@ -3876,17 +3564,17 @@
 య్యది బాలురకొఱకుఁ బౌష మందుఁ గుమారా!</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>jaathi</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>jaathi</t>
+          <t>kumaara</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
-        <is>
-          <t>kumaara</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
         <is>
           <t>[('ప', '|'), ('దు', '|'), ('నె', '|'), ('ని', '|'), ('మి', '|'), ('ది', '|'), ('వం', 'U'), ('ద', '|'), ('ల', '|'), ('య', '|'), ('ఱు', '|'), ('వ', '|'), ('ది', '|'), ('య', '|'), ('గు', 'U'), ('క్రీ', 'U'), ('స్తు', '|'), ('శ', '|'), ('క', '|'), ('మం', 'U'), ('దు', '|'), ('వ', '|'), ('ర', '|'), ('రౌ', 'U'), ('ద్రి', '|'), ('ని', '|'), ('మే', 'U'), ('లొ', '|'), ('ద', '|'), ('వ', '|'), ('ర', '|'), ('చిం', 'U'), ('ప', '|'), ('బ', '|'), ('డె', '|'), ('ని', 'U'), ('య్య', '|'), ('ది', '|'), ('బా', 'U'), ('లు', '|'), ('ర', '|'), ('కొ', '|'), ('ఱ', '|'), ('కు', '|'), ('బౌ', 'U'), ('ష', '|'), ('మం', 'U'), ('దు', '|'), ('గు', '|'), ('మా', 'U'), ('రా', 'U')]</t>
         </is>
